--- a/VT_Model_DMD.xlsx
+++ b/VT_Model_DMD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="placeholders" codeName="Ten_skoroszyt"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl.sharepoint.com/sites/TIMES-PL-PSE/Shared Documents/General/MODELE/2025/TIMES-PL - INTEGRACJA 2025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patir\Documents\Praca ESMlab\1. TIMES-PL-PSE\Potencjał biogazu\Poprawy 2026\Model_AGR_wyizolowany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="399" documentId="13_ncr:1_{E3DE95F7-F8B6-403C-939D-98CC5BED9129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E02AC456-6A90-4FDB-8E89-4F179D60CC12}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB50250-FAA8-4661-8862-FC12823EF898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="901" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" tabRatio="901" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="151" r:id="rId1"/>
@@ -494,18 +494,18 @@
   <commentList>
     <comment ref="E9" authorId="0" shapeId="0" xr:uid="{578EAF4A-2948-479B-88BF-5A898DB80D0A}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t xml:space="preserve">[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
     Różnica między GUS a Eurostat, zostawiam, żeby zgadzało się z GUSem całkowite zużycie
 </t>
       </text>
     </comment>
     <comment ref="E20" authorId="1" shapeId="0" xr:uid="{97B1867E-6684-4D83-B825-65C70A72091D}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
     Tyle u nas HT+HW w DH</t>
       </text>
     </comment>
@@ -557,9 +557,9 @@
   <commentList>
     <comment ref="I73" authorId="0" shapeId="0" xr:uid="{75EE449B-1191-42E9-9288-D8EEF162166B}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
     Brak danych dla 2020r. - pobrano dane z odpowiadającego dokumentu dla roku 2022.</t>
       </text>
     </comment>
@@ -568,7 +568,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="391">
   <si>
     <t>Sprawność</t>
   </si>
@@ -2009,12 +2009,15 @@
   <si>
     <t>area in thousands ha</t>
   </si>
+  <si>
+    <t>PRI_BIOG_AGR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="9">
+  <numFmts count="8">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="\Te\x\t"/>
@@ -2022,8 +2025,7 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _z_ł_-;\-* #,##0.00\ _z_ł_-;_-* &quot;-&quot;??\ _z_ł_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="0.000%"/>
     <numFmt numFmtId="168" formatCode="0.0%"/>
-    <numFmt numFmtId="172" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
-    <numFmt numFmtId="174" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="54">
     <font>
@@ -3271,15 +3273,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
@@ -3292,7 +3294,7 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="282">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="34" fillId="9" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="34" fillId="9" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3618,49 +3620,6 @@
     <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="13" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="18" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="14" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="15" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="16" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="17" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="18" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="19" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="16"/>
     <xf numFmtId="0" fontId="38" fillId="3" borderId="50" xfId="16" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="38" fillId="3" borderId="38" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3717,21 +3676,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="16" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="16" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="16" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="56" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="57" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="57" xfId="16" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="58" xfId="16" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="56" xfId="16" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="58" xfId="16" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="56" xfId="16" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="57" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="57" xfId="16" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="58" xfId="16" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="56" xfId="16" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="14" fillId="3" borderId="57" xfId="16" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -3753,26 +3700,76 @@
     <xf numFmtId="3" fontId="14" fillId="0" borderId="63" xfId="16" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="16" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="16" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="16" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="16"/>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="37" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="14" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="21" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="21" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="21" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="21"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="21" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="21" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="18" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="14" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="15" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="16" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="17" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="18" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="19" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="56" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="57" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="56" xfId="16" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="57" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="57" xfId="16" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="58" xfId="16" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
     <cellStyle name="Currency 2" xfId="22" xr:uid="{A96F0AD3-2208-4370-A7E3-455C1DD899F4}"/>
     <cellStyle name="Currency 3" xfId="30" xr:uid="{10E1204A-4B20-4609-80CE-25DF9EF1FF4A}"/>
     <cellStyle name="Dziesiętny 3" xfId="26" xr:uid="{1B9C328A-8C00-41D2-A77D-84DA6E88956C}"/>
     <cellStyle name="Hiperłącze 2" xfId="35" xr:uid="{EC515D07-AB44-47AA-9C04-985DD24F82AB}"/>
     <cellStyle name="Hiperłącze 2 4 2" xfId="28" xr:uid="{E3973698-8850-48FC-8B8F-BD3531C9634F}"/>
     <cellStyle name="Hyperlink 2" xfId="31" xr:uid="{3BF0A10B-28D6-47FB-A512-B534E3665814}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal - Style1 2 2 3" xfId="24" xr:uid="{5B29D331-F6FC-4D40-AE59-344CE7CC7E8B}"/>
     <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000016030000}"/>
     <cellStyle name="Normal 10 15 2" xfId="8" xr:uid="{E5A914AA-3C51-4575-A411-D47338308B02}"/>
@@ -3791,6 +3788,7 @@
     <cellStyle name="Normal 74 2" xfId="17" xr:uid="{3755A256-3A15-4980-AA47-F07685703E44}"/>
     <cellStyle name="Normal 75" xfId="13" xr:uid="{5E4DD1BB-B2A2-4924-8213-6200EAFF2F3D}"/>
     <cellStyle name="Normal 92" xfId="9" xr:uid="{A0176DF6-2011-4869-A9A7-2DF2D063BC75}"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 10 10" xfId="15" xr:uid="{91DBF07E-6F37-4D49-8806-B701EBCC81B0}"/>
     <cellStyle name="Normalny 10 2 3" xfId="4" xr:uid="{00000000-0005-0000-0000-00002D030000}"/>
     <cellStyle name="Normalny 11" xfId="40" xr:uid="{08D21801-4933-4D8B-A73F-BACBE729F67B}"/>
@@ -3804,9 +3802,10 @@
     <cellStyle name="Normalny 5" xfId="33" xr:uid="{12F41709-6A34-4351-8EB6-5FC249CFCDB0}"/>
     <cellStyle name="Normalny 6" xfId="32" xr:uid="{C4FF25F9-1BC7-4D67-81DA-2B20338193D0}"/>
     <cellStyle name="Normalny 9" xfId="38" xr:uid="{AA93C929-A11C-4870-80D5-2F5F20661D4A}"/>
-    <cellStyle name="Percent" xfId="11" builtinId="5"/>
     <cellStyle name="Percent 49" xfId="12" xr:uid="{C9F9DD75-B330-45C9-BF68-4F61E43C37B0}"/>
+    <cellStyle name="Procentowy" xfId="11" builtinId="5"/>
     <cellStyle name="Procentowy 5" xfId="27" xr:uid="{54866908-B0BC-4735-830B-06CD13D5B2F5}"/>
+    <cellStyle name="Walutowy" xfId="5" builtinId="4"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -4585,12 +4584,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="3" width="4" style="64" customWidth="1"/>
-    <col min="4" max="9" width="14.28515625" style="64" customWidth="1"/>
+    <col min="4" max="9" width="14.33203125" style="64" customWidth="1"/>
     <col min="10" max="12" width="4" style="64" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="64"/>
+    <col min="13" max="16384" width="9.109375" style="64"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" customHeight="1">
@@ -4720,15 +4719,15 @@
       <c r="A14" s="65"/>
       <c r="B14" s="60"/>
       <c r="C14" s="55"/>
-      <c r="D14" s="196" t="s">
+      <c r="D14" s="261" t="s">
         <v>306</v>
       </c>
-      <c r="E14" s="196"/>
-      <c r="F14" s="197" t="s">
+      <c r="E14" s="261"/>
+      <c r="F14" s="262" t="s">
         <v>307</v>
       </c>
-      <c r="G14" s="197"/>
-      <c r="H14" s="197"/>
+      <c r="G14" s="262"/>
+      <c r="H14" s="262"/>
       <c r="J14" s="54"/>
       <c r="K14" s="56"/>
       <c r="L14" s="65"/>
@@ -4739,9 +4738,9 @@
       <c r="C15" s="55"/>
       <c r="D15" s="52"/>
       <c r="E15" s="52"/>
-      <c r="F15" s="197"/>
-      <c r="G15" s="197"/>
-      <c r="H15" s="197"/>
+      <c r="F15" s="262"/>
+      <c r="G15" s="262"/>
+      <c r="H15" s="262"/>
       <c r="J15" s="54"/>
       <c r="K15" s="56"/>
       <c r="L15" s="65"/>
@@ -4766,16 +4765,16 @@
       <c r="A18" s="65"/>
       <c r="B18" s="60"/>
       <c r="C18" s="55"/>
-      <c r="D18" s="196" t="s">
+      <c r="D18" s="261" t="s">
         <v>308</v>
       </c>
-      <c r="E18" s="196"/>
-      <c r="F18" s="197" t="s">
+      <c r="E18" s="261"/>
+      <c r="F18" s="262" t="s">
         <v>318</v>
       </c>
-      <c r="G18" s="197"/>
-      <c r="H18" s="197"/>
-      <c r="I18" s="197"/>
+      <c r="G18" s="262"/>
+      <c r="H18" s="262"/>
+      <c r="I18" s="262"/>
       <c r="J18" s="54"/>
       <c r="K18" s="56"/>
       <c r="L18" s="65"/>
@@ -4786,10 +4785,10 @@
       <c r="C19" s="55"/>
       <c r="D19" s="52"/>
       <c r="E19" s="52"/>
-      <c r="F19" s="197"/>
-      <c r="G19" s="197"/>
-      <c r="H19" s="197"/>
-      <c r="I19" s="197"/>
+      <c r="F19" s="262"/>
+      <c r="G19" s="262"/>
+      <c r="H19" s="262"/>
+      <c r="I19" s="262"/>
       <c r="J19" s="54"/>
       <c r="K19" s="56"/>
       <c r="L19" s="65"/>
@@ -4800,10 +4799,10 @@
       <c r="C20" s="55"/>
       <c r="D20" s="52"/>
       <c r="E20" s="52"/>
-      <c r="F20" s="197"/>
-      <c r="G20" s="197"/>
-      <c r="H20" s="197"/>
-      <c r="I20" s="197"/>
+      <c r="F20" s="262"/>
+      <c r="G20" s="262"/>
+      <c r="H20" s="262"/>
+      <c r="I20" s="262"/>
       <c r="J20" s="54"/>
       <c r="K20" s="56"/>
       <c r="L20" s="65"/>
@@ -4823,10 +4822,10 @@
       <c r="A22" s="65"/>
       <c r="B22" s="60"/>
       <c r="C22" s="55"/>
-      <c r="D22" s="196" t="s">
+      <c r="D22" s="261" t="s">
         <v>309</v>
       </c>
-      <c r="E22" s="196"/>
+      <c r="E22" s="261"/>
       <c r="F22" s="50">
         <v>45173</v>
       </c>
@@ -4904,10 +4903,10 @@
       <c r="A28" s="65"/>
       <c r="B28" s="60"/>
       <c r="C28" s="55"/>
-      <c r="D28" s="196" t="s">
+      <c r="D28" s="261" t="s">
         <v>311</v>
       </c>
-      <c r="E28" s="196"/>
+      <c r="E28" s="261"/>
       <c r="F28" s="64" t="s">
         <v>312</v>
       </c>
@@ -4946,10 +4945,10 @@
       <c r="A32" s="65"/>
       <c r="B32" s="60"/>
       <c r="C32" s="55"/>
-      <c r="D32" s="196" t="s">
+      <c r="D32" s="261" t="s">
         <v>314</v>
       </c>
-      <c r="E32" s="196"/>
+      <c r="E32" s="261"/>
       <c r="F32" s="64" t="s">
         <v>312</v>
       </c>
@@ -5042,8 +5041,8 @@
       <c r="K40" s="65"/>
       <c r="L40" s="65"/>
     </row>
-    <row r="48" spans="1:12" ht="59.45" customHeight="1"/>
-    <row r="49" ht="64.150000000000006" customHeight="1"/>
+    <row r="48" spans="1:12" ht="59.4" customHeight="1"/>
+    <row r="49" ht="64.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D32:E32"/>
@@ -5071,12 +5070,12 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="80" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="80" customWidth="1"/>
-    <col min="3" max="12" width="16.140625" style="80" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="80"/>
+    <col min="1" max="1" width="3.5546875" style="80" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" style="80" customWidth="1"/>
+    <col min="3" max="12" width="16.109375" style="80" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="80"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10">
@@ -5132,7 +5131,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="13.7" customHeight="1">
+    <row r="5" spans="2:10" ht="13.65" customHeight="1">
       <c r="B5" s="106" t="s">
         <v>6</v>
       </c>
@@ -5161,7 +5160,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="13.5" thickBot="1">
+    <row r="6" spans="2:10" ht="13.8" thickBot="1">
       <c r="B6" s="108" t="s">
         <v>276</v>
       </c>
@@ -5188,7 +5187,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="13.5" thickBot="1">
+    <row r="7" spans="2:10" ht="13.8" thickBot="1">
       <c r="B7" s="161" t="s">
         <v>259</v>
       </c>
@@ -5276,7 +5275,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="13.5" thickBot="1">
+    <row r="13" spans="2:10" ht="13.8" thickBot="1">
       <c r="B13" s="108" t="s">
         <v>276</v>
       </c>
@@ -5285,7 +5284,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="13.5" thickBot="1">
+    <row r="14" spans="2:10" ht="13.8" thickBot="1">
       <c r="B14" s="161" t="s">
         <v>287</v>
       </c>
@@ -5734,40 +5733,40 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41D2646-6146-4D14-B889-3C0C97BBED9D}">
-  <dimension ref="A2:P84"/>
+  <dimension ref="A2:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="E6" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="211" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.140625" style="211" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="211" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="211" customWidth="1"/>
-    <col min="5" max="6" width="12.85546875" style="211" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="211" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="211" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="211" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="211"/>
+    <col min="1" max="1" width="9" style="196" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.109375" style="196" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" style="196" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="196" customWidth="1"/>
+    <col min="5" max="6" width="12.88671875" style="196" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" style="196" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="196" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" style="196" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="196"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:10">
       <c r="A2" s="80"/>
       <c r="B2" s="80"/>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
       <c r="E2" s="80"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:10">
       <c r="B3" s="84" t="s">
         <v>101</v>
       </c>
       <c r="C3" s="84"/>
       <c r="D3" s="80"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:10">
       <c r="B4" s="106" t="s">
         <v>6</v>
       </c>
@@ -5796,7 +5795,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="13.5" thickBot="1">
+    <row r="5" spans="1:10" ht="13.8" thickBot="1">
       <c r="B5" s="108" t="s">
         <v>276</v>
       </c>
@@ -5823,7 +5822,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.95" customHeight="1" thickBot="1">
+    <row r="6" spans="1:10" ht="15.9" customHeight="1" thickBot="1">
       <c r="B6" s="165" t="s">
         <v>263</v>
       </c>
@@ -5852,12 +5851,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.95" customHeight="1">
+    <row r="7" spans="1:10" ht="15.9" customHeight="1">
       <c r="B7" s="186" t="s">
         <v>276</v>
       </c>
       <c r="C7" s="186"/>
-      <c r="D7" s="280" t="s">
+      <c r="D7" s="256" t="s">
         <v>299</v>
       </c>
       <c r="E7" s="186"/>
@@ -5867,18 +5866,18 @@
       <c r="I7" s="186"/>
       <c r="J7" s="186"/>
     </row>
-    <row r="8" spans="1:16" ht="15.95" customHeight="1">
-      <c r="B8" s="284" t="s">
+    <row r="8" spans="1:10" ht="15.9" customHeight="1">
+      <c r="B8" s="260" t="s">
         <v>300</v>
       </c>
       <c r="C8" s="189" t="s">
         <v>293</v>
       </c>
-      <c r="D8" s="281">
+      <c r="D8" s="257">
         <f>D76/1000</f>
         <v>2391.308</v>
       </c>
-      <c r="E8" s="284">
+      <c r="E8" s="260">
         <f>D8</f>
         <v>2391.308</v>
       </c>
@@ -5886,11 +5885,11 @@
         <f t="shared" ref="F8:J8" si="0">E8</f>
         <v>2391.308</v>
       </c>
-      <c r="G8" s="281">
+      <c r="G8" s="257">
         <f t="shared" si="0"/>
         <v>2391.308</v>
       </c>
-      <c r="H8" s="284">
+      <c r="H8" s="260">
         <f t="shared" si="0"/>
         <v>2391.308</v>
       </c>
@@ -5898,19 +5897,13 @@
         <f t="shared" si="0"/>
         <v>2391.308</v>
       </c>
-      <c r="J8" s="281">
+      <c r="J8" s="257">
         <f t="shared" si="0"/>
         <v>2391.308</v>
       </c>
-      <c r="K8" s="279"/>
-      <c r="L8" s="279"/>
-      <c r="M8" s="279"/>
-      <c r="N8" s="279"/>
-      <c r="O8" s="279"/>
-      <c r="P8" s="279"/>
-    </row>
-    <row r="9" spans="1:16" ht="15.95" customHeight="1">
-      <c r="B9" s="283" t="s">
+    </row>
+    <row r="9" spans="1:10" ht="15.9" customHeight="1">
+      <c r="B9" s="259" t="s">
         <v>301</v>
       </c>
       <c r="C9" s="188" t="s">
@@ -5920,7 +5913,7 @@
         <f>(C76-D76)/1000</f>
         <v>3887.5880000000002</v>
       </c>
-      <c r="E9" s="283">
+      <c r="E9" s="259">
         <f t="shared" ref="E9:J28" si="1">D9</f>
         <v>3887.5880000000002</v>
       </c>
@@ -5932,7 +5925,7 @@
         <f t="shared" si="1"/>
         <v>3887.5880000000002</v>
       </c>
-      <c r="H9" s="283">
+      <c r="H9" s="259">
         <f t="shared" si="1"/>
         <v>3887.5880000000002</v>
       </c>
@@ -5944,51 +5937,45 @@
         <f t="shared" si="1"/>
         <v>3887.5880000000002</v>
       </c>
-      <c r="K9" s="279"/>
-      <c r="L9" s="279"/>
-      <c r="M9" s="279"/>
-      <c r="N9" s="279"/>
-      <c r="O9" s="279"/>
-      <c r="P9" s="279"/>
-    </row>
-    <row r="10" spans="1:16" s="278" customFormat="1" ht="15.95" customHeight="1">
-      <c r="B10" s="282" t="s">
+    </row>
+    <row r="10" spans="1:10" ht="15.9" customHeight="1">
+      <c r="B10" s="258" t="s">
         <v>302</v>
       </c>
-      <c r="C10" s="277" t="s">
+      <c r="C10" s="68" t="s">
         <v>293</v>
       </c>
-      <c r="D10" s="277">
+      <c r="D10" s="68">
         <f>G76/1000</f>
         <v>277.85000000000002</v>
       </c>
-      <c r="E10" s="278">
+      <c r="E10" s="196">
         <f t="shared" si="1"/>
         <v>277.85000000000002</v>
       </c>
-      <c r="F10" s="278">
+      <c r="F10" s="196">
         <f t="shared" si="1"/>
         <v>277.85000000000002</v>
       </c>
-      <c r="G10" s="278">
+      <c r="G10" s="196">
         <f t="shared" si="1"/>
         <v>277.85000000000002</v>
       </c>
-      <c r="H10" s="278">
+      <c r="H10" s="196">
         <f t="shared" si="1"/>
         <v>277.85000000000002</v>
       </c>
-      <c r="I10" s="278">
+      <c r="I10" s="196">
         <f t="shared" si="1"/>
         <v>277.85000000000002</v>
       </c>
-      <c r="J10" s="278">
+      <c r="J10" s="196">
         <f t="shared" si="1"/>
         <v>277.85000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.95" customHeight="1">
-      <c r="B11" s="283" t="s">
+    <row r="11" spans="1:10" ht="15.9" customHeight="1">
+      <c r="B11" s="259" t="s">
         <v>303</v>
       </c>
       <c r="C11" s="188" t="s">
@@ -5998,7 +5985,7 @@
         <f>E76/1000</f>
         <v>11727.41</v>
       </c>
-      <c r="E11" s="283">
+      <c r="E11" s="259">
         <f t="shared" si="1"/>
         <v>11727.41</v>
       </c>
@@ -6010,7 +5997,7 @@
         <f t="shared" si="1"/>
         <v>11727.41</v>
       </c>
-      <c r="H11" s="283">
+      <c r="H11" s="259">
         <f t="shared" si="1"/>
         <v>11727.41</v>
       </c>
@@ -6022,57 +6009,45 @@
         <f t="shared" si="1"/>
         <v>11727.41</v>
       </c>
-      <c r="K11" s="279"/>
-      <c r="L11" s="279"/>
-      <c r="M11" s="279"/>
-      <c r="N11" s="279"/>
-      <c r="O11" s="279"/>
-      <c r="P11" s="279"/>
-    </row>
-    <row r="12" spans="1:16" ht="15.95" customHeight="1">
-      <c r="B12" s="282" t="s">
+    </row>
+    <row r="12" spans="1:10" ht="15.9" customHeight="1">
+      <c r="B12" s="258" t="s">
         <v>304</v>
       </c>
-      <c r="C12" s="277" t="s">
+      <c r="C12" s="68" t="s">
         <v>293</v>
       </c>
-      <c r="D12" s="277">
+      <c r="D12" s="68">
         <f>I76/1000</f>
         <v>62.581000000000003</v>
       </c>
-      <c r="E12" s="278">
+      <c r="E12" s="196">
         <f t="shared" si="1"/>
         <v>62.581000000000003</v>
       </c>
-      <c r="F12" s="278">
+      <c r="F12" s="196">
         <f t="shared" si="1"/>
         <v>62.581000000000003</v>
       </c>
-      <c r="G12" s="278">
+      <c r="G12" s="196">
         <f t="shared" si="1"/>
         <v>62.581000000000003</v>
       </c>
-      <c r="H12" s="278">
+      <c r="H12" s="196">
         <f t="shared" si="1"/>
         <v>62.581000000000003</v>
       </c>
-      <c r="I12" s="278">
+      <c r="I12" s="196">
         <f t="shared" si="1"/>
         <v>62.581000000000003</v>
       </c>
-      <c r="J12" s="278">
+      <c r="J12" s="196">
         <f t="shared" si="1"/>
         <v>62.581000000000003</v>
       </c>
-      <c r="K12" s="279"/>
-      <c r="L12" s="279"/>
-      <c r="M12" s="279"/>
-      <c r="N12" s="279"/>
-      <c r="O12" s="279"/>
-      <c r="P12" s="279"/>
-    </row>
-    <row r="13" spans="1:16" ht="15.95" customHeight="1">
-      <c r="B13" s="283" t="s">
+    </row>
+    <row r="13" spans="1:10" ht="15.9" customHeight="1">
+      <c r="B13" s="259" t="s">
         <v>305</v>
       </c>
       <c r="C13" s="188" t="s">
@@ -6082,7 +6057,7 @@
         <f>D82/1000</f>
         <v>205774.511</v>
       </c>
-      <c r="E13" s="283">
+      <c r="E13" s="259">
         <f t="shared" si="1"/>
         <v>205774.511</v>
       </c>
@@ -6094,7 +6069,7 @@
         <f t="shared" si="1"/>
         <v>205774.511</v>
       </c>
-      <c r="H13" s="283">
+      <c r="H13" s="259">
         <f t="shared" si="1"/>
         <v>205774.511</v>
       </c>
@@ -6106,19 +6081,13 @@
         <f t="shared" si="1"/>
         <v>205774.511</v>
       </c>
-      <c r="K13" s="279"/>
-      <c r="L13" s="279"/>
-      <c r="M13" s="279"/>
-      <c r="N13" s="279"/>
-      <c r="O13" s="279"/>
-      <c r="P13" s="279"/>
-    </row>
-    <row r="14" spans="1:16" s="279" customFormat="1" ht="15.95" customHeight="1">
+    </row>
+    <row r="14" spans="1:10" ht="15.9" customHeight="1">
       <c r="B14" s="186" t="s">
         <v>276</v>
       </c>
       <c r="C14" s="186"/>
-      <c r="D14" s="280" t="s">
+      <c r="D14" s="256" t="s">
         <v>389</v>
       </c>
       <c r="E14" s="186"/>
@@ -6128,18 +6097,18 @@
       <c r="I14" s="186"/>
       <c r="J14" s="186"/>
     </row>
-    <row r="15" spans="1:16" ht="15.95" customHeight="1">
-      <c r="B15" s="284" t="s">
+    <row r="15" spans="1:10" ht="15.9" customHeight="1">
+      <c r="B15" s="260" t="s">
         <v>375</v>
       </c>
       <c r="C15" s="189" t="s">
         <v>293</v>
       </c>
-      <c r="D15" s="281">
+      <c r="D15" s="257">
         <f>C40</f>
         <v>2373.3000000000002</v>
       </c>
-      <c r="E15" s="284">
+      <c r="E15" s="260">
         <f t="shared" si="1"/>
         <v>2373.3000000000002</v>
       </c>
@@ -6147,11 +6116,11 @@
         <f t="shared" si="1"/>
         <v>2373.3000000000002</v>
       </c>
-      <c r="G15" s="281">
+      <c r="G15" s="257">
         <f t="shared" si="1"/>
         <v>2373.3000000000002</v>
       </c>
-      <c r="H15" s="284">
+      <c r="H15" s="260">
         <f t="shared" si="1"/>
         <v>2373.3000000000002</v>
       </c>
@@ -6159,19 +6128,13 @@
         <f t="shared" si="1"/>
         <v>2373.3000000000002</v>
       </c>
-      <c r="J15" s="281">
+      <c r="J15" s="257">
         <f t="shared" si="1"/>
         <v>2373.3000000000002</v>
       </c>
-      <c r="K15" s="279"/>
-      <c r="L15" s="279"/>
-      <c r="M15" s="279"/>
-      <c r="N15" s="279"/>
-      <c r="O15" s="279"/>
-      <c r="P15" s="279"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="B16" s="283" t="s">
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="259" t="s">
         <v>376</v>
       </c>
       <c r="C16" s="188" t="s">
@@ -6181,7 +6144,7 @@
         <f>C44</f>
         <v>675.3</v>
       </c>
-      <c r="E16" s="283">
+      <c r="E16" s="259">
         <f t="shared" si="1"/>
         <v>675.3</v>
       </c>
@@ -6193,7 +6156,7 @@
         <f t="shared" si="1"/>
         <v>675.3</v>
       </c>
-      <c r="H16" s="283">
+      <c r="H16" s="259">
         <f t="shared" si="1"/>
         <v>675.3</v>
       </c>
@@ -6205,57 +6168,45 @@
         <f t="shared" si="1"/>
         <v>675.3</v>
       </c>
-      <c r="K16" s="279"/>
-      <c r="L16" s="279"/>
-      <c r="M16" s="279"/>
-      <c r="N16" s="279"/>
-      <c r="O16" s="279"/>
-      <c r="P16" s="279"/>
-    </row>
-    <row r="17" spans="2:16">
-      <c r="B17" s="282" t="s">
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="258" t="s">
         <v>377</v>
       </c>
-      <c r="C17" s="277" t="s">
+      <c r="C17" s="68" t="s">
         <v>293</v>
       </c>
-      <c r="D17" s="277">
+      <c r="D17" s="68">
         <f>C52</f>
         <v>946.1</v>
       </c>
-      <c r="E17" s="278">
+      <c r="E17" s="196">
         <f t="shared" si="1"/>
         <v>946.1</v>
       </c>
-      <c r="F17" s="278">
+      <c r="F17" s="196">
         <f t="shared" si="1"/>
         <v>946.1</v>
       </c>
-      <c r="G17" s="278">
+      <c r="G17" s="196">
         <f t="shared" si="1"/>
         <v>946.1</v>
       </c>
-      <c r="H17" s="278">
+      <c r="H17" s="196">
         <f t="shared" si="1"/>
         <v>946.1</v>
       </c>
-      <c r="I17" s="278">
+      <c r="I17" s="196">
         <f t="shared" si="1"/>
         <v>946.1</v>
       </c>
-      <c r="J17" s="278">
+      <c r="J17" s="196">
         <f t="shared" si="1"/>
         <v>946.1</v>
       </c>
-      <c r="K17" s="279"/>
-      <c r="L17" s="279"/>
-      <c r="M17" s="279"/>
-      <c r="N17" s="279"/>
-      <c r="O17" s="279"/>
-      <c r="P17" s="279"/>
-    </row>
-    <row r="18" spans="2:16">
-      <c r="B18" s="283" t="s">
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="259" t="s">
         <v>378</v>
       </c>
       <c r="C18" s="188" t="s">
@@ -6265,7 +6216,7 @@
         <f>C50</f>
         <v>590.9</v>
       </c>
-      <c r="E18" s="283">
+      <c r="E18" s="259">
         <f t="shared" si="1"/>
         <v>590.9</v>
       </c>
@@ -6277,7 +6228,7 @@
         <f t="shared" si="1"/>
         <v>590.9</v>
       </c>
-      <c r="H18" s="283">
+      <c r="H18" s="259">
         <f t="shared" si="1"/>
         <v>590.9</v>
       </c>
@@ -6289,51 +6240,45 @@
         <f t="shared" si="1"/>
         <v>590.9</v>
       </c>
-      <c r="K18" s="279"/>
-      <c r="L18" s="279"/>
-      <c r="M18" s="279"/>
-      <c r="N18" s="279"/>
-      <c r="O18" s="279"/>
-      <c r="P18" s="279"/>
-    </row>
-    <row r="19" spans="2:16" s="279" customFormat="1">
-      <c r="B19" s="282" t="s">
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="258" t="s">
         <v>379</v>
       </c>
-      <c r="C19" s="277" t="s">
+      <c r="C19" s="68" t="s">
         <v>293</v>
       </c>
-      <c r="D19" s="277">
+      <c r="D19" s="68">
         <f>C48</f>
         <v>1389</v>
       </c>
-      <c r="E19" s="278">
+      <c r="E19" s="196">
         <f t="shared" si="1"/>
         <v>1389</v>
       </c>
-      <c r="F19" s="278">
+      <c r="F19" s="196">
         <f t="shared" si="1"/>
         <v>1389</v>
       </c>
-      <c r="G19" s="278">
+      <c r="G19" s="196">
         <f t="shared" si="1"/>
         <v>1389</v>
       </c>
-      <c r="H19" s="278">
+      <c r="H19" s="196">
         <f t="shared" si="1"/>
         <v>1389</v>
       </c>
-      <c r="I19" s="278">
+      <c r="I19" s="196">
         <f t="shared" si="1"/>
         <v>1389</v>
       </c>
-      <c r="J19" s="278">
+      <c r="J19" s="196">
         <f t="shared" si="1"/>
         <v>1389</v>
       </c>
     </row>
-    <row r="20" spans="2:16" s="279" customFormat="1">
-      <c r="B20" s="283" t="s">
+    <row r="20" spans="2:10">
+      <c r="B20" s="259" t="s">
         <v>380</v>
       </c>
       <c r="C20" s="188" t="s">
@@ -6343,7 +6288,7 @@
         <f>C46</f>
         <v>500.1</v>
       </c>
-      <c r="E20" s="283">
+      <c r="E20" s="259">
         <f t="shared" si="1"/>
         <v>500.1</v>
       </c>
@@ -6355,7 +6300,7 @@
         <f t="shared" si="1"/>
         <v>500.1</v>
       </c>
-      <c r="H20" s="283">
+      <c r="H20" s="259">
         <f t="shared" si="1"/>
         <v>500.1</v>
       </c>
@@ -6368,44 +6313,44 @@
         <v>500.1</v>
       </c>
     </row>
-    <row r="21" spans="2:16" s="279" customFormat="1">
-      <c r="B21" s="282" t="s">
+    <row r="21" spans="2:10">
+      <c r="B21" s="258" t="s">
         <v>381</v>
       </c>
-      <c r="C21" s="277" t="s">
+      <c r="C21" s="68" t="s">
         <v>293</v>
       </c>
-      <c r="D21" s="277">
+      <c r="D21" s="68">
         <f>C42</f>
         <v>843.6</v>
       </c>
-      <c r="E21" s="278">
+      <c r="E21" s="196">
         <f t="shared" si="1"/>
         <v>843.6</v>
       </c>
-      <c r="F21" s="278">
+      <c r="F21" s="196">
         <f t="shared" si="1"/>
         <v>843.6</v>
       </c>
-      <c r="G21" s="278">
+      <c r="G21" s="196">
         <f t="shared" si="1"/>
         <v>843.6</v>
       </c>
-      <c r="H21" s="278">
+      <c r="H21" s="196">
         <f t="shared" si="1"/>
         <v>843.6</v>
       </c>
-      <c r="I21" s="278">
+      <c r="I21" s="196">
         <f t="shared" si="1"/>
         <v>843.6</v>
       </c>
-      <c r="J21" s="278">
+      <c r="J21" s="196">
         <f t="shared" si="1"/>
         <v>843.6</v>
       </c>
     </row>
-    <row r="22" spans="2:16" s="279" customFormat="1">
-      <c r="B22" s="283" t="s">
+    <row r="22" spans="2:10">
+      <c r="B22" s="259" t="s">
         <v>382</v>
       </c>
       <c r="C22" s="188" t="s">
@@ -6415,7 +6360,7 @@
         <f>C54+C56</f>
         <v>90.399999999999991</v>
       </c>
-      <c r="E22" s="283">
+      <c r="E22" s="259">
         <f t="shared" si="1"/>
         <v>90.399999999999991</v>
       </c>
@@ -6427,7 +6372,7 @@
         <f t="shared" si="1"/>
         <v>90.399999999999991</v>
       </c>
-      <c r="H22" s="283">
+      <c r="H22" s="259">
         <f t="shared" si="1"/>
         <v>90.399999999999991</v>
       </c>
@@ -6440,50 +6385,44 @@
         <v>90.399999999999991</v>
       </c>
     </row>
-    <row r="23" spans="2:16">
-      <c r="B23" s="282" t="s">
+    <row r="23" spans="2:10">
+      <c r="B23" s="258" t="s">
         <v>383</v>
       </c>
-      <c r="C23" s="277" t="s">
+      <c r="C23" s="68" t="s">
         <v>293</v>
       </c>
-      <c r="D23" s="277">
+      <c r="D23" s="68">
         <f>C64</f>
         <v>18</v>
       </c>
-      <c r="E23" s="278">
+      <c r="E23" s="196">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="F23" s="278">
+      <c r="F23" s="196">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="G23" s="278">
+      <c r="G23" s="196">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="H23" s="278">
+      <c r="H23" s="196">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="I23" s="278">
+      <c r="I23" s="196">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="J23" s="278">
+      <c r="J23" s="196">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="K23" s="279"/>
-      <c r="L23" s="279"/>
-      <c r="M23" s="279"/>
-      <c r="N23" s="279"/>
-      <c r="O23" s="279"/>
-      <c r="P23" s="279"/>
-    </row>
-    <row r="24" spans="2:16">
-      <c r="B24" s="283" t="s">
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="259" t="s">
         <v>384</v>
       </c>
       <c r="C24" s="188" t="s">
@@ -6493,7 +6432,7 @@
         <f>C62</f>
         <v>82.9</v>
       </c>
-      <c r="E24" s="283">
+      <c r="E24" s="259">
         <f t="shared" si="1"/>
         <v>82.9</v>
       </c>
@@ -6505,7 +6444,7 @@
         <f t="shared" si="1"/>
         <v>82.9</v>
       </c>
-      <c r="H24" s="283">
+      <c r="H24" s="259">
         <f t="shared" si="1"/>
         <v>82.9</v>
       </c>
@@ -6517,57 +6456,45 @@
         <f t="shared" si="1"/>
         <v>82.9</v>
       </c>
-      <c r="K24" s="279"/>
-      <c r="L24" s="279"/>
-      <c r="M24" s="279"/>
-      <c r="N24" s="279"/>
-      <c r="O24" s="279"/>
-      <c r="P24" s="279"/>
-    </row>
-    <row r="25" spans="2:16">
-      <c r="B25" s="282" t="s">
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="258" t="s">
         <v>385</v>
       </c>
-      <c r="C25" s="277" t="s">
+      <c r="C25" s="68" t="s">
         <v>293</v>
       </c>
-      <c r="D25" s="277">
+      <c r="D25" s="68">
         <f>C58</f>
         <v>225.7</v>
       </c>
-      <c r="E25" s="278">
+      <c r="E25" s="196">
         <f t="shared" si="1"/>
         <v>225.7</v>
       </c>
-      <c r="F25" s="278">
+      <c r="F25" s="196">
         <f t="shared" si="1"/>
         <v>225.7</v>
       </c>
-      <c r="G25" s="278">
+      <c r="G25" s="196">
         <f t="shared" si="1"/>
         <v>225.7</v>
       </c>
-      <c r="H25" s="278">
+      <c r="H25" s="196">
         <f t="shared" si="1"/>
         <v>225.7</v>
       </c>
-      <c r="I25" s="278">
+      <c r="I25" s="196">
         <f t="shared" si="1"/>
         <v>225.7</v>
       </c>
-      <c r="J25" s="278">
+      <c r="J25" s="196">
         <f t="shared" si="1"/>
         <v>225.7</v>
       </c>
-      <c r="K25" s="279"/>
-      <c r="L25" s="279"/>
-      <c r="M25" s="279"/>
-      <c r="N25" s="279"/>
-      <c r="O25" s="279"/>
-      <c r="P25" s="279"/>
-    </row>
-    <row r="26" spans="2:16">
-      <c r="B26" s="283" t="s">
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="259" t="s">
         <v>386</v>
       </c>
       <c r="C26" s="188" t="s">
@@ -6577,7 +6504,7 @@
         <f>C60</f>
         <v>1039.3</v>
       </c>
-      <c r="E26" s="283">
+      <c r="E26" s="259">
         <f t="shared" si="1"/>
         <v>1039.3</v>
       </c>
@@ -6589,7 +6516,7 @@
         <f t="shared" si="1"/>
         <v>1039.3</v>
       </c>
-      <c r="H26" s="283">
+      <c r="H26" s="259">
         <f t="shared" si="1"/>
         <v>1039.3</v>
       </c>
@@ -6601,56 +6528,44 @@
         <f t="shared" si="1"/>
         <v>1039.3</v>
       </c>
-      <c r="K26" s="279"/>
-      <c r="L26" s="279"/>
-      <c r="M26" s="279"/>
-      <c r="N26" s="279"/>
-      <c r="O26" s="279"/>
-      <c r="P26" s="279"/>
-    </row>
-    <row r="27" spans="2:16">
-      <c r="B27" s="282" t="s">
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="258" t="s">
         <v>387</v>
       </c>
-      <c r="C27" s="277" t="s">
+      <c r="C27" s="68" t="s">
         <v>293</v>
       </c>
-      <c r="D27" s="277">
+      <c r="D27" s="68">
         <v>0</v>
       </c>
-      <c r="E27" s="278">
+      <c r="E27" s="196">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F27" s="278">
+      <c r="F27" s="196">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G27" s="278">
+      <c r="G27" s="196">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H27" s="278">
+      <c r="H27" s="196">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I27" s="278">
+      <c r="I27" s="196">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J27" s="278">
+      <c r="J27" s="196">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K27" s="279"/>
-      <c r="L27" s="279"/>
-      <c r="M27" s="279"/>
-      <c r="N27" s="279"/>
-      <c r="O27" s="279"/>
-      <c r="P27" s="279"/>
-    </row>
-    <row r="28" spans="2:16">
-      <c r="B28" s="283" t="s">
+    </row>
+    <row r="28" spans="2:10" ht="13.8" thickBot="1">
+      <c r="B28" s="259" t="s">
         <v>388</v>
       </c>
       <c r="C28" s="188" t="s">
@@ -6659,7 +6574,7 @@
       <c r="D28" s="188">
         <v>0</v>
       </c>
-      <c r="E28" s="283">
+      <c r="E28" s="259">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6671,7 +6586,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H28" s="283">
+      <c r="H28" s="259">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6683,808 +6598,763 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K28" s="279"/>
-      <c r="L28" s="279"/>
-      <c r="M28" s="279"/>
-      <c r="N28" s="279"/>
-      <c r="O28" s="279"/>
-      <c r="P28" s="279"/>
-    </row>
-    <row r="29" spans="2:16">
-      <c r="B29" s="279"/>
-      <c r="C29" s="279"/>
-      <c r="D29" s="279"/>
-      <c r="E29" s="279"/>
-      <c r="F29" s="279"/>
-      <c r="G29" s="279"/>
-      <c r="H29" s="279"/>
-      <c r="I29" s="279"/>
-      <c r="J29" s="279"/>
-      <c r="K29" s="279"/>
-      <c r="L29" s="279"/>
-      <c r="M29" s="279"/>
-      <c r="N29" s="279"/>
-      <c r="O29" s="279"/>
-      <c r="P29" s="279"/>
-    </row>
-    <row r="30" spans="2:16" ht="15.95" customHeight="1">
-      <c r="B30" s="279"/>
-      <c r="C30" s="279"/>
-      <c r="D30" s="279"/>
-      <c r="E30" s="279"/>
-      <c r="F30" s="279"/>
-      <c r="G30" s="279"/>
-      <c r="H30" s="279"/>
-      <c r="I30" s="279"/>
-      <c r="J30" s="279"/>
-      <c r="K30" s="279"/>
-      <c r="L30" s="279"/>
-      <c r="M30" s="279"/>
-      <c r="N30" s="279"/>
-      <c r="O30" s="279"/>
-      <c r="P30" s="279"/>
-    </row>
-    <row r="31" spans="2:16" ht="15.95" customHeight="1"/>
-    <row r="32" spans="2:16" ht="15.95" customHeight="1"/>
-    <row r="33" spans="2:8" ht="15.95" customHeight="1" thickBot="1">
-      <c r="B33" s="211" t="s">
+    </row>
+    <row r="29" spans="2:10" ht="13.8" thickBot="1">
+      <c r="B29" s="165" t="s">
+        <v>390</v>
+      </c>
+      <c r="C29" s="165" t="s">
+        <v>293</v>
+      </c>
+      <c r="D29" s="166">
+        <v>1</v>
+      </c>
+      <c r="E29" s="174">
+        <v>1</v>
+      </c>
+      <c r="F29" s="174">
+        <v>1</v>
+      </c>
+      <c r="G29" s="174">
+        <v>1</v>
+      </c>
+      <c r="H29" s="174">
+        <v>1</v>
+      </c>
+      <c r="I29" s="174">
+        <v>1</v>
+      </c>
+      <c r="J29" s="174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="15.9" customHeight="1"/>
+    <row r="31" spans="2:10" ht="15.9" customHeight="1"/>
+    <row r="32" spans="2:10" ht="15.9" customHeight="1"/>
+    <row r="33" spans="2:8" ht="15.9" customHeight="1" thickBot="1">
+      <c r="B33" s="196" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="244"/>
-      <c r="C34" s="245"/>
-      <c r="D34" s="245"/>
-      <c r="E34" s="245"/>
-      <c r="F34" s="245"/>
-      <c r="G34" s="245"/>
-      <c r="H34" s="246"/>
-    </row>
-    <row r="35" spans="2:8" ht="15.75">
-      <c r="B35" s="247" t="s">
+      <c r="B34" s="229"/>
+      <c r="C34" s="230"/>
+      <c r="D34" s="230"/>
+      <c r="E34" s="230"/>
+      <c r="F34" s="230"/>
+      <c r="G34" s="230"/>
+      <c r="H34" s="231"/>
+    </row>
+    <row r="35" spans="2:8" ht="15.6">
+      <c r="B35" s="272" t="s">
         <v>350</v>
       </c>
-      <c r="C35" s="248"/>
-      <c r="D35" s="248"/>
-      <c r="E35" s="248"/>
-      <c r="F35" s="248"/>
-      <c r="G35" s="249"/>
-      <c r="H35" s="250" t="s">
+      <c r="C35" s="273"/>
+      <c r="D35" s="273"/>
+      <c r="E35" s="273"/>
+      <c r="F35" s="273"/>
+      <c r="G35" s="232"/>
+      <c r="H35" s="233" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="251"/>
-      <c r="C36" s="249"/>
-      <c r="D36" s="249"/>
-      <c r="E36" s="249"/>
-      <c r="F36" s="249"/>
-      <c r="G36" s="249"/>
-      <c r="H36" s="252"/>
+      <c r="B36" s="234"/>
+      <c r="C36" s="232"/>
+      <c r="D36" s="232"/>
+      <c r="E36" s="232"/>
+      <c r="F36" s="232"/>
+      <c r="G36" s="232"/>
+      <c r="H36" s="235"/>
     </row>
     <row r="37" spans="2:8">
-      <c r="B37" s="253" t="s">
+      <c r="B37" s="274" t="s">
         <v>351</v>
       </c>
-      <c r="C37" s="254" t="s">
+      <c r="C37" s="275" t="s">
         <v>352</v>
       </c>
-      <c r="D37" s="254" t="s">
+      <c r="D37" s="275" t="s">
         <v>353</v>
       </c>
-      <c r="E37" s="254" t="s">
+      <c r="E37" s="275" t="s">
         <v>354</v>
       </c>
-      <c r="F37" s="249" t="s">
+      <c r="F37" s="232" t="s">
         <v>355</v>
       </c>
-      <c r="G37" s="249" t="s">
+      <c r="G37" s="232" t="s">
         <v>356</v>
       </c>
-      <c r="H37" s="252" t="s">
+      <c r="H37" s="235" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="13.5" customHeight="1">
-      <c r="B38" s="253"/>
-      <c r="C38" s="254"/>
-      <c r="D38" s="254"/>
-      <c r="E38" s="254"/>
-      <c r="F38" s="255" t="s">
+      <c r="B38" s="274"/>
+      <c r="C38" s="275"/>
+      <c r="D38" s="275"/>
+      <c r="E38" s="275"/>
+      <c r="F38" s="276" t="s">
         <v>358</v>
       </c>
-      <c r="G38" s="255"/>
-      <c r="H38" s="256"/>
+      <c r="G38" s="276"/>
+      <c r="H38" s="277"/>
     </row>
     <row r="39" spans="2:8">
-      <c r="B39" s="257" t="s">
+      <c r="B39" s="236" t="s">
         <v>359</v>
       </c>
-      <c r="C39" s="249"/>
-      <c r="D39" s="249"/>
-      <c r="E39" s="249"/>
-      <c r="F39" s="249"/>
-      <c r="G39" s="249"/>
-      <c r="H39" s="252"/>
+      <c r="C39" s="232"/>
+      <c r="D39" s="232"/>
+      <c r="E39" s="232"/>
+      <c r="F39" s="232"/>
+      <c r="G39" s="232"/>
+      <c r="H39" s="235"/>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="251" t="s">
+      <c r="B40" s="234" t="s">
         <v>360</v>
       </c>
-      <c r="C40" s="258">
+      <c r="C40" s="237">
         <v>2373.3000000000002</v>
       </c>
-      <c r="D40" s="249">
+      <c r="D40" s="232">
         <v>53.4</v>
       </c>
-      <c r="E40" s="259">
+      <c r="E40" s="238">
         <v>126689067</v>
       </c>
-      <c r="F40" s="249">
+      <c r="F40" s="232">
         <v>94.5</v>
       </c>
-      <c r="G40" s="249">
+      <c r="G40" s="232">
         <v>121.6</v>
       </c>
-      <c r="H40" s="252">
+      <c r="H40" s="235">
         <v>115</v>
       </c>
     </row>
     <row r="41" spans="2:8">
-      <c r="B41" s="257" t="s">
+      <c r="B41" s="236" t="s">
         <v>361</v>
       </c>
-      <c r="C41" s="249"/>
-      <c r="D41" s="249"/>
-      <c r="E41" s="249"/>
-      <c r="F41" s="249"/>
-      <c r="G41" s="249"/>
-      <c r="H41" s="252"/>
+      <c r="C41" s="232"/>
+      <c r="D41" s="232"/>
+      <c r="E41" s="232"/>
+      <c r="F41" s="232"/>
+      <c r="G41" s="232"/>
+      <c r="H41" s="235"/>
     </row>
     <row r="42" spans="2:8">
-      <c r="B42" s="251" t="s">
+      <c r="B42" s="234" t="s">
         <v>362</v>
       </c>
-      <c r="C42" s="249">
+      <c r="C42" s="232">
         <v>843.6</v>
       </c>
-      <c r="D42" s="249">
+      <c r="D42" s="232">
         <v>35.1</v>
       </c>
-      <c r="E42" s="259">
+      <c r="E42" s="238">
         <v>29597519</v>
       </c>
-      <c r="F42" s="249">
+      <c r="F42" s="232">
         <v>93.3</v>
       </c>
-      <c r="G42" s="249">
+      <c r="G42" s="232">
         <v>129</v>
       </c>
-      <c r="H42" s="252">
+      <c r="H42" s="235">
         <v>120.2</v>
       </c>
     </row>
     <row r="43" spans="2:8">
-      <c r="B43" s="257" t="s">
+      <c r="B43" s="236" t="s">
         <v>363</v>
       </c>
-      <c r="C43" s="249"/>
-      <c r="D43" s="249"/>
-      <c r="E43" s="249"/>
-      <c r="F43" s="249"/>
-      <c r="G43" s="249"/>
-      <c r="H43" s="252"/>
+      <c r="C43" s="232"/>
+      <c r="D43" s="232"/>
+      <c r="E43" s="232"/>
+      <c r="F43" s="232"/>
+      <c r="G43" s="232"/>
+      <c r="H43" s="235"/>
     </row>
     <row r="44" spans="2:8">
-      <c r="B44" s="251" t="s">
+      <c r="B44" s="234" t="s">
         <v>362</v>
       </c>
-      <c r="C44" s="249">
+      <c r="C44" s="232">
         <v>675.3</v>
       </c>
-      <c r="D44" s="249">
+      <c r="D44" s="232">
         <v>44.4</v>
       </c>
-      <c r="E44" s="259">
+      <c r="E44" s="238">
         <v>30006221</v>
       </c>
-      <c r="F44" s="249">
+      <c r="F44" s="232">
         <v>69.2</v>
       </c>
-      <c r="G44" s="249">
+      <c r="G44" s="232">
         <v>128.30000000000001</v>
       </c>
-      <c r="H44" s="252">
+      <c r="H44" s="235">
         <v>88.9</v>
       </c>
     </row>
     <row r="45" spans="2:8">
-      <c r="B45" s="257" t="s">
+      <c r="B45" s="236" t="s">
         <v>364</v>
       </c>
-      <c r="C45" s="249"/>
-      <c r="D45" s="249"/>
-      <c r="E45" s="249"/>
-      <c r="F45" s="249"/>
-      <c r="G45" s="249"/>
-      <c r="H45" s="252"/>
+      <c r="C45" s="232"/>
+      <c r="D45" s="232"/>
+      <c r="E45" s="232"/>
+      <c r="F45" s="232"/>
+      <c r="G45" s="232"/>
+      <c r="H45" s="235"/>
     </row>
     <row r="46" spans="2:8">
-      <c r="B46" s="251" t="s">
+      <c r="B46" s="234" t="s">
         <v>360</v>
       </c>
-      <c r="C46" s="249">
+      <c r="C46" s="232">
         <v>500.1</v>
       </c>
-      <c r="D46" s="249">
+      <c r="D46" s="232">
         <v>33.200000000000003</v>
       </c>
-      <c r="E46" s="259">
+      <c r="E46" s="238">
         <v>16579863</v>
       </c>
-      <c r="F46" s="249">
+      <c r="F46" s="232">
         <v>100.9</v>
       </c>
-      <c r="G46" s="249">
+      <c r="G46" s="232">
         <v>133.30000000000001</v>
       </c>
-      <c r="H46" s="252">
+      <c r="H46" s="235">
         <v>134.5</v>
       </c>
     </row>
     <row r="47" spans="2:8">
-      <c r="B47" s="257" t="s">
+      <c r="B47" s="236" t="s">
         <v>365</v>
       </c>
-      <c r="C47" s="249"/>
-      <c r="D47" s="249"/>
-      <c r="E47" s="249"/>
-      <c r="F47" s="249"/>
-      <c r="G47" s="249"/>
-      <c r="H47" s="252"/>
+      <c r="C47" s="232"/>
+      <c r="D47" s="232"/>
+      <c r="E47" s="232"/>
+      <c r="F47" s="232"/>
+      <c r="G47" s="232"/>
+      <c r="H47" s="235"/>
     </row>
     <row r="48" spans="2:8">
-      <c r="B48" s="251" t="s">
+      <c r="B48" s="234" t="s">
         <v>362</v>
       </c>
-      <c r="C48" s="258">
+      <c r="C48" s="237">
         <v>1389</v>
       </c>
-      <c r="D48" s="249">
+      <c r="D48" s="232">
         <v>44.6</v>
       </c>
-      <c r="E48" s="259">
+      <c r="E48" s="238">
         <v>61952359</v>
       </c>
-      <c r="F48" s="249">
+      <c r="F48" s="232">
         <v>105.6</v>
       </c>
-      <c r="G48" s="249">
+      <c r="G48" s="232">
         <v>127.8</v>
       </c>
-      <c r="H48" s="252">
+      <c r="H48" s="235">
         <v>135.19999999999999</v>
       </c>
     </row>
     <row r="49" spans="2:8">
-      <c r="B49" s="257" t="s">
+      <c r="B49" s="236" t="s">
         <v>366</v>
       </c>
-      <c r="C49" s="249"/>
-      <c r="D49" s="249"/>
-      <c r="E49" s="249"/>
-      <c r="F49" s="249"/>
-      <c r="G49" s="249"/>
-      <c r="H49" s="252"/>
+      <c r="C49" s="232"/>
+      <c r="D49" s="232"/>
+      <c r="E49" s="232"/>
+      <c r="F49" s="232"/>
+      <c r="G49" s="232"/>
+      <c r="H49" s="235"/>
     </row>
     <row r="50" spans="2:8">
-      <c r="B50" s="251" t="s">
+      <c r="B50" s="234" t="s">
         <v>362</v>
       </c>
-      <c r="C50" s="249">
+      <c r="C50" s="232">
         <v>590.9</v>
       </c>
-      <c r="D50" s="249">
+      <c r="D50" s="232">
         <v>35.200000000000003</v>
       </c>
-      <c r="E50" s="259">
+      <c r="E50" s="238">
         <v>20799585</v>
       </c>
-      <c r="F50" s="249">
+      <c r="F50" s="232">
         <v>63.4</v>
       </c>
-      <c r="G50" s="249">
+      <c r="G50" s="232">
         <v>132.80000000000001</v>
       </c>
-      <c r="H50" s="252">
+      <c r="H50" s="235">
         <v>84.1</v>
       </c>
     </row>
     <row r="51" spans="2:8">
-      <c r="B51" s="257" t="s">
+      <c r="B51" s="236" t="s">
         <v>367</v>
       </c>
-      <c r="C51" s="249"/>
-      <c r="D51" s="249"/>
-      <c r="E51" s="249"/>
-      <c r="F51" s="249"/>
-      <c r="G51" s="249"/>
-      <c r="H51" s="252"/>
-    </row>
-    <row r="52" spans="2:8" ht="15">
-      <c r="B52" s="251" t="s">
+      <c r="C51" s="232"/>
+      <c r="D51" s="232"/>
+      <c r="E51" s="232"/>
+      <c r="F51" s="232"/>
+      <c r="G51" s="232"/>
+      <c r="H51" s="235"/>
+    </row>
+    <row r="52" spans="2:8" ht="14.4">
+      <c r="B52" s="234" t="s">
         <v>362</v>
       </c>
-      <c r="C52" s="249">
+      <c r="C52" s="232">
         <v>946.1</v>
       </c>
-      <c r="D52" s="249">
+      <c r="D52" s="232">
         <v>72.099999999999994</v>
       </c>
-      <c r="E52" s="259">
+      <c r="E52" s="238">
         <v>68215612</v>
       </c>
-      <c r="F52" s="260">
+      <c r="F52" s="239">
         <v>142.30000000000001</v>
       </c>
-      <c r="G52" s="260">
+      <c r="G52" s="239">
         <v>128.30000000000001</v>
       </c>
-      <c r="H52" s="261">
+      <c r="H52" s="240">
         <v>182.7</v>
       </c>
     </row>
     <row r="53" spans="2:8">
-      <c r="B53" s="257" t="s">
+      <c r="B53" s="236" t="s">
         <v>368</v>
       </c>
-      <c r="C53" s="249"/>
-      <c r="D53" s="249"/>
-      <c r="E53" s="249"/>
-      <c r="F53" s="249"/>
-      <c r="G53" s="249"/>
-      <c r="H53" s="252"/>
+      <c r="C53" s="232"/>
+      <c r="D53" s="232"/>
+      <c r="E53" s="232"/>
+      <c r="F53" s="232"/>
+      <c r="G53" s="232"/>
+      <c r="H53" s="235"/>
     </row>
     <row r="54" spans="2:8">
-      <c r="B54" s="251" t="s">
+      <c r="B54" s="234" t="s">
         <v>362</v>
       </c>
-      <c r="C54" s="249">
+      <c r="C54" s="232">
         <v>67.599999999999994</v>
       </c>
-      <c r="D54" s="249">
+      <c r="D54" s="232">
         <v>14.3</v>
       </c>
-      <c r="E54" s="259">
+      <c r="E54" s="238">
         <v>966362</v>
       </c>
-      <c r="F54" s="249">
+      <c r="F54" s="232">
         <v>93.4</v>
       </c>
-      <c r="G54" s="249">
+      <c r="G54" s="232">
         <v>118.2</v>
       </c>
-      <c r="H54" s="252">
+      <c r="H54" s="235">
         <v>110.2</v>
       </c>
     </row>
     <row r="55" spans="2:8">
-      <c r="B55" s="257" t="s">
+      <c r="B55" s="236" t="s">
         <v>369</v>
       </c>
-      <c r="C55" s="249"/>
-      <c r="D55" s="249"/>
-      <c r="E55" s="249"/>
-      <c r="F55" s="249"/>
-      <c r="G55" s="249"/>
-      <c r="H55" s="252"/>
+      <c r="C55" s="232"/>
+      <c r="D55" s="232"/>
+      <c r="E55" s="232"/>
+      <c r="F55" s="232"/>
+      <c r="G55" s="232"/>
+      <c r="H55" s="235"/>
     </row>
     <row r="56" spans="2:8">
-      <c r="B56" s="251" t="s">
+      <c r="B56" s="234" t="s">
         <v>362</v>
       </c>
-      <c r="C56" s="249">
+      <c r="C56" s="232">
         <v>22.8</v>
       </c>
-      <c r="D56" s="249">
+      <c r="D56" s="232">
         <v>18</v>
       </c>
-      <c r="E56" s="259">
+      <c r="E56" s="238">
         <v>410798</v>
       </c>
-      <c r="F56" s="249">
+      <c r="F56" s="232">
         <v>121.3</v>
       </c>
-      <c r="G56" s="249">
+      <c r="G56" s="232">
         <v>113.2</v>
       </c>
-      <c r="H56" s="252">
+      <c r="H56" s="235">
         <v>137.30000000000001</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="14.25">
-      <c r="B57" s="257" t="s">
+    <row r="57" spans="2:8" ht="15.6">
+      <c r="B57" s="236" t="s">
         <v>370</v>
       </c>
-      <c r="C57" s="249"/>
-      <c r="D57" s="249"/>
-      <c r="E57" s="249"/>
-      <c r="F57" s="249"/>
-      <c r="G57" s="249"/>
-      <c r="H57" s="252"/>
+      <c r="C57" s="232"/>
+      <c r="D57" s="232"/>
+      <c r="E57" s="232"/>
+      <c r="F57" s="232"/>
+      <c r="G57" s="232"/>
+      <c r="H57" s="235"/>
     </row>
     <row r="58" spans="2:8">
-      <c r="B58" s="262" t="s">
+      <c r="B58" s="241" t="s">
         <v>360</v>
       </c>
-      <c r="C58" s="263">
+      <c r="C58" s="242">
         <v>225.7</v>
       </c>
-      <c r="D58" s="264">
+      <c r="D58" s="243">
         <v>348</v>
       </c>
-      <c r="E58" s="265">
+      <c r="E58" s="244">
         <v>78485923</v>
       </c>
-      <c r="F58" s="264">
+      <c r="F58" s="243">
         <v>74.599999999999994</v>
       </c>
-      <c r="G58" s="264">
+      <c r="G58" s="243">
         <v>162.19999999999999</v>
       </c>
-      <c r="H58" s="266">
+      <c r="H58" s="245">
         <v>121.1</v>
       </c>
     </row>
     <row r="59" spans="2:8">
-      <c r="B59" s="257" t="s">
+      <c r="B59" s="236" t="s">
         <v>371</v>
       </c>
-      <c r="C59" s="249"/>
-      <c r="D59" s="249"/>
-      <c r="E59" s="249"/>
-      <c r="F59" s="249"/>
-      <c r="G59" s="249"/>
-      <c r="H59" s="252"/>
+      <c r="C59" s="232"/>
+      <c r="D59" s="232"/>
+      <c r="E59" s="232"/>
+      <c r="F59" s="232"/>
+      <c r="G59" s="232"/>
+      <c r="H59" s="235"/>
     </row>
     <row r="60" spans="2:8">
-      <c r="B60" s="251" t="s">
+      <c r="B60" s="234" t="s">
         <v>362</v>
       </c>
-      <c r="C60" s="258">
+      <c r="C60" s="237">
         <v>1039.3</v>
       </c>
-      <c r="D60" s="249">
+      <c r="D60" s="232">
         <v>31</v>
       </c>
-      <c r="E60" s="259">
+      <c r="E60" s="238">
         <v>32170890</v>
       </c>
-      <c r="F60" s="249">
+      <c r="F60" s="232">
         <v>113.5</v>
       </c>
-      <c r="G60" s="249">
+      <c r="G60" s="232">
         <v>116.5</v>
       </c>
-      <c r="H60" s="252">
+      <c r="H60" s="235">
         <v>132.30000000000001</v>
       </c>
     </row>
     <row r="61" spans="2:8">
-      <c r="B61" s="267" t="s">
+      <c r="B61" s="246" t="s">
         <v>372</v>
       </c>
-      <c r="C61" s="268"/>
-      <c r="D61" s="268"/>
-      <c r="E61" s="268"/>
-      <c r="F61" s="268"/>
-      <c r="G61" s="268"/>
-      <c r="H61" s="269"/>
+      <c r="C61" s="247"/>
+      <c r="D61" s="247"/>
+      <c r="E61" s="247"/>
+      <c r="F61" s="247"/>
+      <c r="G61" s="247"/>
+      <c r="H61" s="248"/>
     </row>
     <row r="62" spans="2:8">
-      <c r="B62" s="270" t="s">
+      <c r="B62" s="249" t="s">
         <v>362</v>
       </c>
-      <c r="C62" s="268">
+      <c r="C62" s="247">
         <v>82.9</v>
       </c>
-      <c r="D62" s="268">
+      <c r="D62" s="247">
         <v>24.5</v>
       </c>
-      <c r="E62" s="271">
+      <c r="E62" s="250">
         <v>2030301</v>
       </c>
-      <c r="F62" s="268">
+      <c r="F62" s="247">
         <v>126</v>
       </c>
-      <c r="G62" s="268">
+      <c r="G62" s="247">
         <v>120.1</v>
       </c>
-      <c r="H62" s="269">
+      <c r="H62" s="248">
         <v>151.19999999999999</v>
       </c>
     </row>
     <row r="63" spans="2:8">
-      <c r="B63" s="267" t="s">
+      <c r="B63" s="246" t="s">
         <v>373</v>
       </c>
-      <c r="C63" s="268"/>
-      <c r="D63" s="268"/>
-      <c r="E63" s="268"/>
-      <c r="F63" s="268"/>
-      <c r="G63" s="268"/>
-      <c r="H63" s="269"/>
-    </row>
-    <row r="64" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B64" s="272" t="s">
+      <c r="C63" s="247"/>
+      <c r="D63" s="247"/>
+      <c r="E63" s="247"/>
+      <c r="F63" s="247"/>
+      <c r="G63" s="247"/>
+      <c r="H63" s="248"/>
+    </row>
+    <row r="64" spans="2:8" ht="13.8" thickBot="1">
+      <c r="B64" s="251" t="s">
         <v>374</v>
       </c>
-      <c r="C64" s="273">
+      <c r="C64" s="252">
         <v>18</v>
       </c>
-      <c r="D64" s="273">
+      <c r="D64" s="252">
         <v>153</v>
       </c>
-      <c r="E64" s="274">
+      <c r="E64" s="253">
         <v>2739710</v>
       </c>
-      <c r="F64" s="275">
+      <c r="F64" s="254">
         <v>88.3</v>
       </c>
-      <c r="G64" s="275">
+      <c r="G64" s="254">
         <v>102.7</v>
       </c>
-      <c r="H64" s="276">
+      <c r="H64" s="255">
         <v>90.5</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="13.5" thickBot="1">
-      <c r="B68" s="279" t="s">
+    <row r="68" spans="2:9" ht="13.8" thickBot="1">
+      <c r="B68" s="196" t="s">
         <v>325</v>
       </c>
-      <c r="C68" s="279"/>
-      <c r="D68" s="279"/>
-      <c r="E68" s="279"/>
-      <c r="F68" s="279"/>
-      <c r="G68" s="279"/>
-      <c r="H68" s="279"/>
-      <c r="I68" s="279"/>
-    </row>
-    <row r="69" spans="2:9" ht="15.75">
-      <c r="B69" s="212" t="s">
+    </row>
+    <row r="69" spans="2:9" ht="15.6">
+      <c r="B69" s="197" t="s">
         <v>326</v>
       </c>
-      <c r="C69" s="213"/>
-      <c r="D69" s="213"/>
-      <c r="E69" s="213"/>
-      <c r="F69" s="213"/>
-      <c r="G69" s="214" t="s">
+      <c r="C69" s="198"/>
+      <c r="D69" s="198"/>
+      <c r="E69" s="198"/>
+      <c r="F69" s="198"/>
+      <c r="G69" s="199" t="s">
         <v>327</v>
       </c>
-      <c r="H69" s="215"/>
-      <c r="I69" s="216"/>
+      <c r="H69" s="200"/>
+      <c r="I69" s="201"/>
     </row>
     <row r="70" spans="2:9">
-      <c r="B70" s="217"/>
-      <c r="C70" s="218"/>
-      <c r="D70" s="218"/>
-      <c r="E70" s="218"/>
-      <c r="F70" s="218"/>
-      <c r="G70" s="218"/>
-      <c r="H70" s="218"/>
-      <c r="I70" s="219"/>
+      <c r="B70" s="202"/>
+      <c r="C70" s="203"/>
+      <c r="D70" s="203"/>
+      <c r="E70" s="203"/>
+      <c r="F70" s="203"/>
+      <c r="G70" s="203"/>
+      <c r="H70" s="203"/>
+      <c r="I70" s="204"/>
     </row>
     <row r="71" spans="2:9">
-      <c r="B71" s="220" t="s">
+      <c r="B71" s="205" t="s">
         <v>328</v>
       </c>
-      <c r="C71" s="221"/>
-      <c r="D71" s="221"/>
-      <c r="E71" s="221"/>
-      <c r="F71" s="221"/>
-      <c r="G71" s="221"/>
-      <c r="H71" s="221"/>
-      <c r="I71" s="222"/>
+      <c r="C71" s="206"/>
+      <c r="D71" s="206"/>
+      <c r="E71" s="206"/>
+      <c r="F71" s="206"/>
+      <c r="G71" s="206"/>
+      <c r="H71" s="206"/>
+      <c r="I71" s="207"/>
     </row>
     <row r="72" spans="2:9">
-      <c r="B72" s="223"/>
-      <c r="C72" s="224"/>
-      <c r="D72" s="224"/>
-      <c r="E72" s="224"/>
-      <c r="F72" s="224"/>
-      <c r="G72" s="224"/>
-      <c r="H72" s="224"/>
-      <c r="I72" s="225"/>
+      <c r="B72" s="208"/>
+      <c r="C72" s="209"/>
+      <c r="D72" s="209"/>
+      <c r="E72" s="209"/>
+      <c r="F72" s="209"/>
+      <c r="G72" s="209"/>
+      <c r="H72" s="209"/>
+      <c r="I72" s="210"/>
     </row>
     <row r="73" spans="2:9">
-      <c r="B73" s="226" t="s">
+      <c r="B73" s="211" t="s">
         <v>329</v>
       </c>
-      <c r="C73" s="227" t="s">
+      <c r="C73" s="212" t="s">
         <v>330</v>
       </c>
-      <c r="D73" s="227"/>
-      <c r="E73" s="227" t="s">
+      <c r="D73" s="212"/>
+      <c r="E73" s="212" t="s">
         <v>331</v>
       </c>
-      <c r="F73" s="227"/>
-      <c r="G73" s="227" t="s">
+      <c r="F73" s="212"/>
+      <c r="G73" s="212" t="s">
         <v>332</v>
       </c>
-      <c r="H73" s="228" t="s">
+      <c r="H73" s="213" t="s">
         <v>333</v>
       </c>
-      <c r="I73" s="229" t="s">
+      <c r="I73" s="214" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="74" spans="2:9">
-      <c r="B74" s="226"/>
-      <c r="C74" s="227" t="s">
+      <c r="B74" s="211"/>
+      <c r="C74" s="212" t="s">
         <v>335</v>
       </c>
-      <c r="D74" s="228" t="s">
+      <c r="D74" s="213" t="s">
         <v>336</v>
       </c>
-      <c r="E74" s="227" t="s">
+      <c r="E74" s="212" t="s">
         <v>335</v>
       </c>
-      <c r="F74" s="228" t="s">
+      <c r="F74" s="213" t="s">
         <v>337</v>
       </c>
-      <c r="G74" s="227"/>
-      <c r="H74" s="228"/>
-      <c r="I74" s="229"/>
+      <c r="G74" s="212"/>
+      <c r="H74" s="213"/>
+      <c r="I74" s="214"/>
     </row>
     <row r="75" spans="2:9">
-      <c r="B75" s="226"/>
-      <c r="C75" s="227" t="s">
+      <c r="B75" s="211"/>
+      <c r="C75" s="212" t="s">
         <v>338</v>
       </c>
-      <c r="D75" s="227"/>
-      <c r="E75" s="227"/>
-      <c r="F75" s="227"/>
-      <c r="G75" s="227"/>
-      <c r="H75" s="227"/>
-      <c r="I75" s="230" t="s">
+      <c r="D75" s="212"/>
+      <c r="E75" s="212"/>
+      <c r="F75" s="212"/>
+      <c r="G75" s="212"/>
+      <c r="H75" s="212"/>
+      <c r="I75" s="215" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="76" spans="2:9" ht="13.5" thickBot="1">
-      <c r="B76" s="231" t="s">
+    <row r="76" spans="2:9" ht="13.8" thickBot="1">
+      <c r="B76" s="216" t="s">
         <v>340</v>
       </c>
-      <c r="C76" s="232">
+      <c r="C76" s="217">
         <v>6278896</v>
       </c>
-      <c r="D76" s="232">
+      <c r="D76" s="217">
         <v>2391308</v>
       </c>
-      <c r="E76" s="232">
+      <c r="E76" s="217">
         <v>11727410</v>
       </c>
-      <c r="F76" s="232">
+      <c r="F76" s="217">
         <v>814967</v>
       </c>
-      <c r="G76" s="232">
+      <c r="G76" s="217">
         <v>277850</v>
       </c>
-      <c r="H76" s="232">
+      <c r="H76" s="217">
         <v>182473350</v>
       </c>
-      <c r="I76" s="233">
+      <c r="I76" s="218">
         <v>62581</v>
       </c>
     </row>
     <row r="77" spans="2:9">
-      <c r="B77" s="234" t="s">
+      <c r="B77" s="219" t="s">
         <v>341</v>
       </c>
-      <c r="C77" s="235"/>
-      <c r="D77" s="235"/>
-      <c r="E77" s="235"/>
-      <c r="F77" s="235"/>
-      <c r="G77" s="236"/>
-      <c r="H77" s="237"/>
-      <c r="I77" s="238"/>
+      <c r="C77" s="220"/>
+      <c r="D77" s="220"/>
+      <c r="E77" s="220"/>
+      <c r="F77" s="220"/>
+      <c r="G77" s="221"/>
+      <c r="H77" s="222"/>
+      <c r="I77" s="223"/>
     </row>
     <row r="78" spans="2:9">
-      <c r="B78" s="226" t="s">
+      <c r="B78" s="211" t="s">
         <v>342</v>
       </c>
-      <c r="C78" s="227" t="s">
+      <c r="C78" s="212" t="s">
         <v>343</v>
       </c>
-      <c r="D78" s="227"/>
-      <c r="E78" s="227" t="s">
+      <c r="D78" s="212"/>
+      <c r="E78" s="212" t="s">
         <v>344</v>
       </c>
-      <c r="F78" s="227"/>
-      <c r="G78" s="279"/>
-      <c r="H78" s="279"/>
-      <c r="I78" s="239"/>
+      <c r="F78" s="212"/>
+      <c r="I78" s="224"/>
     </row>
     <row r="79" spans="2:9">
-      <c r="B79" s="226"/>
-      <c r="C79" s="227" t="s">
+      <c r="B79" s="211"/>
+      <c r="C79" s="212" t="s">
         <v>345</v>
       </c>
-      <c r="D79" s="227"/>
-      <c r="E79" s="227"/>
-      <c r="F79" s="227"/>
-      <c r="G79" s="279"/>
-      <c r="H79" s="279"/>
-      <c r="I79" s="239"/>
+      <c r="D79" s="212"/>
+      <c r="E79" s="212"/>
+      <c r="F79" s="212"/>
+      <c r="I79" s="224"/>
     </row>
     <row r="80" spans="2:9">
-      <c r="B80" s="226"/>
-      <c r="C80" s="227" t="s">
+      <c r="B80" s="211"/>
+      <c r="C80" s="212" t="s">
         <v>346</v>
       </c>
-      <c r="D80" s="227" t="s">
+      <c r="D80" s="212" t="s">
         <v>347</v>
       </c>
-      <c r="E80" s="227" t="s">
+      <c r="E80" s="212" t="s">
         <v>346</v>
       </c>
-      <c r="F80" s="227" t="s">
+      <c r="F80" s="212" t="s">
         <v>347</v>
       </c>
-      <c r="G80" s="279"/>
-      <c r="H80" s="279"/>
-      <c r="I80" s="239"/>
+      <c r="I80" s="224"/>
     </row>
     <row r="81" spans="2:9">
-      <c r="B81" s="226"/>
-      <c r="C81" s="227" t="s">
+      <c r="B81" s="211"/>
+      <c r="C81" s="212" t="s">
         <v>338</v>
       </c>
-      <c r="D81" s="227"/>
-      <c r="E81" s="227"/>
-      <c r="F81" s="227"/>
-      <c r="G81" s="279"/>
-      <c r="H81" s="279"/>
-      <c r="I81" s="239"/>
-    </row>
-    <row r="82" spans="2:9" ht="13.5" thickBot="1">
-      <c r="B82" s="240" t="s">
+      <c r="D81" s="212"/>
+      <c r="E81" s="212"/>
+      <c r="F81" s="212"/>
+      <c r="I81" s="224"/>
+    </row>
+    <row r="82" spans="2:9" ht="13.8" thickBot="1">
+      <c r="B82" s="225" t="s">
         <v>348</v>
       </c>
-      <c r="C82" s="241">
+      <c r="C82" s="226">
         <v>214987216</v>
       </c>
-      <c r="D82" s="241">
+      <c r="D82" s="226">
         <v>205774511</v>
       </c>
-      <c r="E82" s="241">
+      <c r="E82" s="226">
         <v>185713737</v>
       </c>
-      <c r="F82" s="241">
+      <c r="F82" s="226">
         <v>182473350</v>
       </c>
-      <c r="G82" s="242"/>
-      <c r="H82" s="242"/>
-      <c r="I82" s="243"/>
-    </row>
-    <row r="83" spans="2:9">
-      <c r="B83" s="279"/>
-      <c r="C83" s="279"/>
-      <c r="D83" s="279"/>
-      <c r="E83" s="279"/>
-      <c r="F83" s="279"/>
-      <c r="G83" s="279"/>
-      <c r="H83" s="279"/>
-      <c r="I83" s="279"/>
-    </row>
-    <row r="84" spans="2:9">
-      <c r="B84" s="279"/>
-      <c r="C84" s="279"/>
-      <c r="D84" s="279"/>
-      <c r="E84" s="279"/>
-      <c r="F84" s="279"/>
-      <c r="G84" s="279"/>
-      <c r="H84" s="279"/>
-      <c r="I84" s="279"/>
+      <c r="G82" s="227"/>
+      <c r="H82" s="227"/>
+      <c r="I82" s="228"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7509,13 +7379,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="80" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="80" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="80" customWidth="1"/>
-    <col min="4" max="13" width="16.140625" style="80" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="80"/>
+    <col min="1" max="1" width="5.5546875" style="80" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" style="80" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" style="80" customWidth="1"/>
+    <col min="4" max="13" width="16.109375" style="80" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="80"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:11">
@@ -7607,7 +7477,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="26.25" thickBot="1">
+    <row r="7" spans="2:11" ht="27" thickBot="1">
       <c r="B7" s="186" t="s">
         <v>276</v>
       </c>
@@ -7883,7 +7753,7 @@
         <v>16.899000000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="13.5" thickBot="1">
+    <row r="17" spans="2:11" ht="13.8" thickBot="1">
       <c r="B17" s="191" t="s">
         <v>320</v>
       </c>
@@ -7927,12 +7797,12 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="80" customWidth="1"/>
-    <col min="2" max="3" width="17.140625" style="80" customWidth="1"/>
-    <col min="4" max="13" width="16.140625" style="80" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="80"/>
+    <col min="1" max="1" width="5.5546875" style="80" customWidth="1"/>
+    <col min="2" max="3" width="17.109375" style="80" customWidth="1"/>
+    <col min="4" max="13" width="16.109375" style="80" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="80"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:10">
@@ -8144,9 +8014,9 @@
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="62.140625" defaultRowHeight="23.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="62.109375" defaultRowHeight="23.25" customHeight="1"/>
   <cols>
-    <col min="2" max="6" width="16.28515625" customWidth="1"/>
+    <col min="2" max="6" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1">
@@ -8177,7 +8047,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A4" s="207" t="s">
+      <c r="A4" s="278" t="s">
         <v>107</v>
       </c>
       <c r="B4" s="130" t="s">
@@ -8194,15 +8064,15 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A5" s="208"/>
-      <c r="B5" s="209" t="s">
+      <c r="A5" s="279"/>
+      <c r="B5" s="280" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="210"/>
-      <c r="D5" s="209" t="s">
+      <c r="C5" s="281"/>
+      <c r="D5" s="280" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="210"/>
+      <c r="E5" s="281"/>
     </row>
     <row r="6" spans="1:6" ht="9" customHeight="1">
       <c r="A6" s="131" t="s">
@@ -10658,14 +10528,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="3" width="4" style="42" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="42" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" style="42" customWidth="1"/>
-    <col min="6" max="6" width="44.28515625" style="42" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" style="42" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" style="42" customWidth="1"/>
+    <col min="6" max="6" width="44.33203125" style="42" customWidth="1"/>
     <col min="7" max="9" width="4" style="42" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="42"/>
+    <col min="10" max="16384" width="9.109375" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" customHeight="1">
@@ -10690,7 +10560,7 @@
       <c r="H2" s="61"/>
       <c r="I2" s="65"/>
     </row>
-    <row r="3" spans="1:9" ht="18.75">
+    <row r="3" spans="1:9" ht="18">
       <c r="A3" s="65"/>
       <c r="B3" s="60"/>
       <c r="C3" s="59"/>
@@ -10701,20 +10571,20 @@
       <c r="H3" s="56"/>
       <c r="I3" s="65"/>
     </row>
-    <row r="4" spans="1:9" ht="18.75">
+    <row r="4" spans="1:9" ht="18">
       <c r="A4" s="65"/>
       <c r="B4" s="60"/>
       <c r="C4" s="55"/>
-      <c r="D4" s="198" t="s">
+      <c r="D4" s="263" t="s">
         <v>316</v>
       </c>
-      <c r="E4" s="198"/>
-      <c r="F4" s="198"/>
+      <c r="E4" s="263"/>
+      <c r="F4" s="263"/>
       <c r="G4" s="54"/>
       <c r="H4" s="56"/>
       <c r="I4" s="65"/>
     </row>
-    <row r="5" spans="1:9" ht="18.75">
+    <row r="5" spans="1:9" ht="18">
       <c r="A5" s="65"/>
       <c r="B5" s="60"/>
       <c r="C5" s="55"/>
@@ -10725,7 +10595,7 @@
       <c r="H5" s="56"/>
       <c r="I5" s="65"/>
     </row>
-    <row r="6" spans="1:9" ht="18.75">
+    <row r="6" spans="1:9" ht="18">
       <c r="A6" s="65"/>
       <c r="B6" s="60"/>
       <c r="C6" s="55"/>
@@ -10738,7 +10608,7 @@
       <c r="H6" s="56"/>
       <c r="I6" s="65"/>
     </row>
-    <row r="7" spans="1:9" ht="18.75">
+    <row r="7" spans="1:9" ht="18">
       <c r="A7" s="65"/>
       <c r="B7" s="60"/>
       <c r="C7" s="55"/>
@@ -10749,7 +10619,7 @@
       <c r="H7" s="56"/>
       <c r="I7" s="65"/>
     </row>
-    <row r="8" spans="1:9" ht="18.75">
+    <row r="8" spans="1:9" ht="18">
       <c r="A8" s="65"/>
       <c r="B8" s="60"/>
       <c r="C8" s="55"/>
@@ -10760,7 +10630,7 @@
       <c r="H8" s="56"/>
       <c r="I8" s="65"/>
     </row>
-    <row r="9" spans="1:9" ht="18.75">
+    <row r="9" spans="1:9" ht="18">
       <c r="A9" s="65"/>
       <c r="B9" s="60"/>
       <c r="C9" s="55"/>
@@ -10771,7 +10641,7 @@
       <c r="H9" s="56"/>
       <c r="I9" s="65"/>
     </row>
-    <row r="10" spans="1:9" ht="18.75">
+    <row r="10" spans="1:9" ht="18">
       <c r="A10" s="65"/>
       <c r="B10" s="60"/>
       <c r="C10" s="55"/>
@@ -10782,7 +10652,7 @@
       <c r="H10" s="56"/>
       <c r="I10" s="65"/>
     </row>
-    <row r="11" spans="1:9" ht="18.75">
+    <row r="11" spans="1:9" ht="18">
       <c r="A11" s="65"/>
       <c r="B11" s="60"/>
       <c r="C11" s="55"/>
@@ -10793,7 +10663,7 @@
       <c r="H11" s="56"/>
       <c r="I11" s="65"/>
     </row>
-    <row r="12" spans="1:9" ht="18.75">
+    <row r="12" spans="1:9" ht="18">
       <c r="A12" s="65"/>
       <c r="B12" s="60"/>
       <c r="C12" s="55"/>
@@ -10804,7 +10674,7 @@
       <c r="H12" s="56"/>
       <c r="I12" s="65"/>
     </row>
-    <row r="13" spans="1:9" ht="18.75">
+    <row r="13" spans="1:9" ht="18">
       <c r="A13" s="65"/>
       <c r="B13" s="60"/>
       <c r="C13" s="55"/>
@@ -10815,7 +10685,7 @@
       <c r="H13" s="56"/>
       <c r="I13" s="65"/>
     </row>
-    <row r="14" spans="1:9" ht="18.75">
+    <row r="14" spans="1:9" ht="18">
       <c r="A14" s="65"/>
       <c r="B14" s="60"/>
       <c r="C14" s="55"/>
@@ -10826,7 +10696,7 @@
       <c r="H14" s="56"/>
       <c r="I14" s="65"/>
     </row>
-    <row r="15" spans="1:9" ht="18.75">
+    <row r="15" spans="1:9" ht="18">
       <c r="A15" s="65"/>
       <c r="B15" s="60"/>
       <c r="C15" s="55"/>
@@ -10837,7 +10707,7 @@
       <c r="H15" s="56"/>
       <c r="I15" s="65"/>
     </row>
-    <row r="16" spans="1:9" ht="18.75">
+    <row r="16" spans="1:9" ht="18">
       <c r="A16" s="65"/>
       <c r="B16" s="60"/>
       <c r="C16" s="55"/>
@@ -10848,7 +10718,7 @@
       <c r="H16" s="56"/>
       <c r="I16" s="65"/>
     </row>
-    <row r="17" spans="1:9" ht="18.75">
+    <row r="17" spans="1:9" ht="18">
       <c r="A17" s="65"/>
       <c r="B17" s="60"/>
       <c r="C17" s="55"/>
@@ -10859,7 +10729,7 @@
       <c r="H17" s="56"/>
       <c r="I17" s="65"/>
     </row>
-    <row r="18" spans="1:9" ht="18.75">
+    <row r="18" spans="1:9" ht="18">
       <c r="A18" s="65"/>
       <c r="B18" s="60"/>
       <c r="C18" s="55"/>
@@ -10870,7 +10740,7 @@
       <c r="H18" s="56"/>
       <c r="I18" s="65"/>
     </row>
-    <row r="19" spans="1:9" ht="18.75">
+    <row r="19" spans="1:9" ht="18">
       <c r="A19" s="65"/>
       <c r="B19" s="60"/>
       <c r="C19" s="55"/>
@@ -10881,7 +10751,7 @@
       <c r="H19" s="56"/>
       <c r="I19" s="65"/>
     </row>
-    <row r="20" spans="1:9" ht="18.75">
+    <row r="20" spans="1:9" ht="18">
       <c r="A20" s="65"/>
       <c r="B20" s="60"/>
       <c r="C20" s="55"/>
@@ -10892,7 +10762,7 @@
       <c r="H20" s="56"/>
       <c r="I20" s="65"/>
     </row>
-    <row r="21" spans="1:9" ht="18.75">
+    <row r="21" spans="1:9" ht="18">
       <c r="A21" s="65"/>
       <c r="B21" s="60"/>
       <c r="C21" s="55"/>
@@ -10903,7 +10773,7 @@
       <c r="H21" s="56"/>
       <c r="I21" s="65"/>
     </row>
-    <row r="22" spans="1:9" ht="18.75">
+    <row r="22" spans="1:9" ht="18">
       <c r="A22" s="65"/>
       <c r="B22" s="60"/>
       <c r="C22" s="55"/>
@@ -10914,7 +10784,7 @@
       <c r="H22" s="56"/>
       <c r="I22" s="65"/>
     </row>
-    <row r="23" spans="1:9" ht="18.75">
+    <row r="23" spans="1:9" ht="18">
       <c r="A23" s="65"/>
       <c r="B23" s="60"/>
       <c r="C23" s="55"/>
@@ -10925,7 +10795,7 @@
       <c r="H23" s="56"/>
       <c r="I23" s="65"/>
     </row>
-    <row r="24" spans="1:9" ht="18.75">
+    <row r="24" spans="1:9" ht="18">
       <c r="A24" s="65"/>
       <c r="B24" s="60"/>
       <c r="C24" s="55"/>
@@ -10936,7 +10806,7 @@
       <c r="H24" s="56"/>
       <c r="I24" s="65"/>
     </row>
-    <row r="25" spans="1:9" ht="18.75">
+    <row r="25" spans="1:9" ht="18">
       <c r="A25" s="65"/>
       <c r="B25" s="60"/>
       <c r="C25" s="55"/>
@@ -10947,7 +10817,7 @@
       <c r="H25" s="56"/>
       <c r="I25" s="65"/>
     </row>
-    <row r="26" spans="1:9" ht="18.75">
+    <row r="26" spans="1:9" ht="18">
       <c r="A26" s="65"/>
       <c r="B26" s="60"/>
       <c r="C26" s="55"/>
@@ -10958,7 +10828,7 @@
       <c r="H26" s="56"/>
       <c r="I26" s="65"/>
     </row>
-    <row r="27" spans="1:9" ht="18.75">
+    <row r="27" spans="1:9" ht="18">
       <c r="A27" s="65"/>
       <c r="B27" s="60"/>
       <c r="C27" s="55"/>
@@ -10969,7 +10839,7 @@
       <c r="H27" s="56"/>
       <c r="I27" s="65"/>
     </row>
-    <row r="28" spans="1:9" ht="18.75">
+    <row r="28" spans="1:9" ht="18">
       <c r="A28" s="65"/>
       <c r="B28" s="60"/>
       <c r="C28" s="55"/>
@@ -10980,7 +10850,7 @@
       <c r="H28" s="56"/>
       <c r="I28" s="65"/>
     </row>
-    <row r="29" spans="1:9" ht="18.75">
+    <row r="29" spans="1:9" ht="18">
       <c r="A29" s="65"/>
       <c r="B29" s="60"/>
       <c r="C29" s="55"/>
@@ -10991,7 +10861,7 @@
       <c r="H29" s="56"/>
       <c r="I29" s="65"/>
     </row>
-    <row r="30" spans="1:9" ht="18.75">
+    <row r="30" spans="1:9" ht="18">
       <c r="A30" s="65"/>
       <c r="B30" s="60"/>
       <c r="C30" s="55"/>
@@ -11002,7 +10872,7 @@
       <c r="H30" s="56"/>
       <c r="I30" s="65"/>
     </row>
-    <row r="31" spans="1:9" ht="18.75">
+    <row r="31" spans="1:9" ht="18">
       <c r="A31" s="65"/>
       <c r="B31" s="60"/>
       <c r="C31" s="55"/>
@@ -11013,7 +10883,7 @@
       <c r="H31" s="56"/>
       <c r="I31" s="65"/>
     </row>
-    <row r="32" spans="1:9" ht="18.75">
+    <row r="32" spans="1:9" ht="18">
       <c r="A32" s="65"/>
       <c r="B32" s="60"/>
       <c r="C32" s="55"/>
@@ -11024,7 +10894,7 @@
       <c r="H32" s="56"/>
       <c r="I32" s="65"/>
     </row>
-    <row r="33" spans="1:9" ht="18.75">
+    <row r="33" spans="1:9" ht="18">
       <c r="A33" s="65"/>
       <c r="B33" s="60"/>
       <c r="C33" s="55"/>
@@ -11035,7 +10905,7 @@
       <c r="H33" s="56"/>
       <c r="I33" s="65"/>
     </row>
-    <row r="34" spans="1:9" ht="18.75">
+    <row r="34" spans="1:9" ht="18">
       <c r="A34" s="65"/>
       <c r="B34" s="60"/>
       <c r="C34" s="55"/>
@@ -11046,7 +10916,7 @@
       <c r="H34" s="56"/>
       <c r="I34" s="65"/>
     </row>
-    <row r="35" spans="1:9" ht="18.75">
+    <row r="35" spans="1:9" ht="18">
       <c r="A35" s="65"/>
       <c r="B35" s="60"/>
       <c r="C35" s="55"/>
@@ -11057,7 +10927,7 @@
       <c r="H35" s="56"/>
       <c r="I35" s="65"/>
     </row>
-    <row r="36" spans="1:9" ht="18.75">
+    <row r="36" spans="1:9" ht="18">
       <c r="A36" s="65"/>
       <c r="B36" s="60"/>
       <c r="C36" s="55"/>
@@ -11068,7 +10938,7 @@
       <c r="H36" s="56"/>
       <c r="I36" s="65"/>
     </row>
-    <row r="37" spans="1:9" ht="18.75">
+    <row r="37" spans="1:9" ht="18">
       <c r="A37" s="65"/>
       <c r="B37" s="60"/>
       <c r="C37" s="55"/>
@@ -11079,7 +10949,7 @@
       <c r="H37" s="56"/>
       <c r="I37" s="65"/>
     </row>
-    <row r="38" spans="1:9" ht="18.75">
+    <row r="38" spans="1:9" ht="18">
       <c r="A38" s="65"/>
       <c r="B38" s="60"/>
       <c r="C38" s="48"/>
@@ -11129,19 +10999,19 @@
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
     <col min="2" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" customWidth="1"/>
-    <col min="12" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" customWidth="1"/>
+    <col min="12" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15">
@@ -11150,7 +11020,7 @@
       </c>
       <c r="C2" s="72"/>
     </row>
-    <row r="4" spans="2:10" ht="18">
+    <row r="4" spans="2:10" ht="17.399999999999999">
       <c r="B4" s="81" t="s">
         <v>3</v>
       </c>
@@ -11216,7 +11086,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="39" thickBot="1">
+    <row r="8" spans="2:10" ht="40.200000000000003" thickBot="1">
       <c r="B8" s="21" t="s">
         <v>13</v>
       </c>
@@ -11390,7 +11260,7 @@
       <c r="B19" s="68"/>
       <c r="C19" s="68"/>
     </row>
-    <row r="28" spans="2:3" ht="13.7" customHeight="1"/>
+    <row r="28" spans="2:3" ht="13.65" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11409,15 +11279,15 @@
       <selection activeCell="B6" sqref="B6:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" customWidth="1"/>
+    <col min="5" max="5" width="45.6640625" customWidth="1"/>
     <col min="6" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11494,7 +11364,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="39" thickBot="1">
+    <row r="8" spans="2:10" ht="40.200000000000003" thickBot="1">
       <c r="B8" s="20" t="s">
         <v>35</v>
       </c>
@@ -11597,18 +11467,18 @@
       <selection activeCell="B4" sqref="B4:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="47.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="5" max="6" width="19.88671875" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="18">
+    <row r="2" spans="2:11" ht="17.399999999999999">
       <c r="B2" s="81" t="s">
         <v>46</v>
       </c>
@@ -11656,7 +11526,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="26.25" thickBot="1">
+    <row r="6" spans="2:11" ht="27" thickBot="1">
       <c r="B6" s="21" t="s">
         <v>52</v>
       </c>
@@ -11773,7 +11643,7 @@
       <c r="G12" s="103"/>
       <c r="H12" s="103"/>
     </row>
-    <row r="13" spans="2:11" ht="13.5" thickBot="1">
+    <row r="13" spans="2:11" ht="13.8" thickBot="1">
       <c r="B13" s="105" t="s">
         <v>276</v>
       </c>
@@ -11811,14 +11681,14 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="67"/>
-    <col min="2" max="2" width="34.42578125" style="67" customWidth="1"/>
-    <col min="3" max="3" width="46.7109375" style="67" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="67" customWidth="1"/>
-    <col min="5" max="15" width="16.140625" style="67" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="67"/>
+    <col min="1" max="1" width="9.109375" style="67"/>
+    <col min="2" max="2" width="34.44140625" style="67" customWidth="1"/>
+    <col min="3" max="3" width="46.6640625" style="67" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" style="67" customWidth="1"/>
+    <col min="5" max="15" width="16.109375" style="67" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="67"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="12.6" customHeight="1">
@@ -11828,9 +11698,9 @@
       <c r="N1" s="136"/>
       <c r="O1" s="136"/>
     </row>
-    <row r="2" spans="2:15" ht="41.45" customHeight="1">
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
+    <row r="2" spans="2:15" ht="41.4" customHeight="1">
+      <c r="D2" s="264"/>
+      <c r="E2" s="264"/>
       <c r="N2" s="136"/>
       <c r="O2" s="136"/>
     </row>
@@ -11880,7 +11750,7 @@
       <c r="N4" s="136"/>
       <c r="O4" s="136"/>
     </row>
-    <row r="5" spans="2:15" ht="13.5" thickBot="1">
+    <row r="5" spans="2:15" ht="13.8" thickBot="1">
       <c r="C5" s="4" t="s">
         <v>276</v>
       </c>
@@ -11974,7 +11844,7 @@
       <c r="N8" s="136"/>
       <c r="O8" s="136"/>
     </row>
-    <row r="9" spans="2:15" ht="13.5" thickBot="1">
+    <row r="9" spans="2:15" ht="13.8" thickBot="1">
       <c r="C9" s="105" t="str">
         <f>SEC_Comm!D15</f>
         <v>HT_IND_FIN_CONS</v>
@@ -12120,7 +11990,7 @@
       <c r="N15" s="136"/>
       <c r="O15" s="136"/>
     </row>
-    <row r="16" spans="2:15" ht="13.5" thickBot="1">
+    <row r="16" spans="2:15" ht="13.8" thickBot="1">
       <c r="N16" s="136"/>
       <c r="O16" s="136"/>
     </row>
@@ -12273,7 +12143,7 @@
       <c r="N21" s="136"/>
       <c r="O21" s="136"/>
     </row>
-    <row r="22" spans="2:17" ht="13.5" thickBot="1">
+    <row r="22" spans="2:17" ht="13.8" thickBot="1">
       <c r="B22" s="111" t="s">
         <v>213</v>
       </c>
@@ -12326,10 +12196,10 @@
       <c r="B25" s="138" t="s">
         <v>214</v>
       </c>
-      <c r="C25" s="200" t="s">
+      <c r="C25" s="265" t="s">
         <v>222</v>
       </c>
-      <c r="D25" s="200"/>
+      <c r="D25" s="265"/>
       <c r="L25" s="85">
         <f>E12+E40</f>
         <v>180.94874007292165</v>
@@ -12351,8 +12221,8 @@
       <c r="B26" s="137" t="s">
         <v>217</v>
       </c>
-      <c r="C26" s="200"/>
-      <c r="D26" s="200"/>
+      <c r="C26" s="265"/>
+      <c r="D26" s="265"/>
       <c r="E26" s="67">
         <v>58.266514285714365</v>
       </c>
@@ -12391,8 +12261,8 @@
       <c r="B27" s="137" t="s">
         <v>218</v>
       </c>
-      <c r="C27" s="200"/>
-      <c r="D27" s="200"/>
+      <c r="C27" s="265"/>
+      <c r="D27" s="265"/>
       <c r="E27" s="67">
         <v>107.362197350039</v>
       </c>
@@ -12431,8 +12301,8 @@
       <c r="B28" s="139" t="s">
         <v>219</v>
       </c>
-      <c r="C28" s="200"/>
-      <c r="D28" s="200"/>
+      <c r="C28" s="265"/>
+      <c r="D28" s="265"/>
       <c r="N28" s="136" t="s">
         <v>237</v>
       </c>
@@ -12450,8 +12320,8 @@
       <c r="B29" s="137" t="s">
         <v>249</v>
       </c>
-      <c r="C29" s="200"/>
-      <c r="D29" s="200"/>
+      <c r="C29" s="265"/>
+      <c r="D29" s="265"/>
       <c r="E29" s="67">
         <v>34.128761000000004</v>
       </c>
@@ -12490,8 +12360,8 @@
       <c r="B30" s="154" t="s">
         <v>260</v>
       </c>
-      <c r="C30" s="200"/>
-      <c r="D30" s="200"/>
+      <c r="C30" s="265"/>
+      <c r="D30" s="265"/>
       <c r="N30" s="136"/>
       <c r="O30" s="136"/>
     </row>
@@ -12564,7 +12434,7 @@
       <c r="N33" s="136"/>
       <c r="O33" s="136"/>
     </row>
-    <row r="34" spans="2:15" ht="13.5" thickBot="1">
+    <row r="34" spans="2:15" ht="13.8" thickBot="1">
       <c r="B34" s="155" t="s">
         <v>247</v>
       </c>
@@ -12965,7 +12835,7 @@
       <c r="F62"/>
       <c r="G62" s="87"/>
     </row>
-    <row r="63" spans="2:11" ht="30">
+    <row r="63" spans="2:11" ht="28.8">
       <c r="C63" s="88" t="s">
         <v>84</v>
       </c>
@@ -12982,7 +12852,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="64" spans="2:11" ht="15">
+    <row r="64" spans="2:11" ht="14.4">
       <c r="C64" s="89" t="s">
         <v>89</v>
       </c>
@@ -12999,7 +12869,7 @@
         <v>13203443.220000001</v>
       </c>
     </row>
-    <row r="65" spans="3:7" ht="15">
+    <row r="65" spans="3:7" ht="14.4">
       <c r="C65" s="89" t="s">
         <v>90</v>
       </c>
@@ -13016,7 +12886,7 @@
         <v>1336911.25</v>
       </c>
     </row>
-    <row r="66" spans="3:7" ht="15">
+    <row r="66" spans="3:7" ht="14.4">
       <c r="C66" s="89" t="s">
         <v>91</v>
       </c>
@@ -13033,7 +12903,7 @@
         <v>6381919.9279999994</v>
       </c>
     </row>
-    <row r="67" spans="3:7" ht="15">
+    <row r="67" spans="3:7" ht="14.4">
       <c r="C67" s="89" t="s">
         <v>92</v>
       </c>
@@ -13050,7 +12920,7 @@
         <v>620461.50100000005</v>
       </c>
     </row>
-    <row r="68" spans="3:7" ht="15">
+    <row r="68" spans="3:7" ht="14.4">
       <c r="C68" s="89" t="s">
         <v>93</v>
       </c>
@@ -13067,7 +12937,7 @@
         <v>4034879.6360000004</v>
       </c>
     </row>
-    <row r="69" spans="3:7" ht="15">
+    <row r="69" spans="3:7" ht="14.4">
       <c r="C69" s="89" t="s">
         <v>94</v>
       </c>
@@ -13084,7 +12954,7 @@
         <v>391756.69400000002</v>
       </c>
     </row>
-    <row r="70" spans="3:7" ht="15">
+    <row r="70" spans="3:7" ht="14.4">
       <c r="C70" s="89" t="s">
         <v>95</v>
       </c>
@@ -13172,16 +13042,16 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="80" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" style="80" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="80" customWidth="1"/>
-    <col min="4" max="13" width="16.140625" style="80" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="80"/>
+    <col min="1" max="1" width="20.5546875" style="80" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" style="80" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" style="80" customWidth="1"/>
+    <col min="4" max="13" width="16.109375" style="80" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="80"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="13.5" thickBot="1">
+    <row r="1" spans="2:13" ht="13.8" thickBot="1">
       <c r="B1" s="80" t="s">
         <v>56</v>
       </c>
@@ -13198,7 +13068,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="13.7" customHeight="1">
+    <row r="4" spans="2:13" ht="13.65" customHeight="1">
       <c r="B4" s="106" t="s">
         <v>6</v>
       </c>
@@ -13230,7 +13100,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="13.5" thickBot="1">
+    <row r="5" spans="2:13" ht="13.8" thickBot="1">
       <c r="B5" s="108" t="s">
         <v>276</v>
       </c>
@@ -13260,7 +13130,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="13.5" thickBot="1">
+    <row r="6" spans="2:13" ht="13.8" thickBot="1">
       <c r="B6" s="104" t="s">
         <v>242</v>
       </c>
@@ -13373,7 +13243,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="13.5" thickBot="1">
+    <row r="13" spans="2:13" ht="13.8" thickBot="1">
       <c r="B13" s="80" t="s">
         <v>57</v>
       </c>
@@ -13539,7 +13409,7 @@
         <v>6.6151439999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="13.5" thickBot="1">
+    <row r="20" spans="2:13" ht="13.8" thickBot="1">
       <c r="B20" s="119" t="s">
         <v>213</v>
       </c>
@@ -13560,7 +13430,7 @@
         <v>4.1868000000000002E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="13.5" thickBot="1">
+    <row r="21" spans="2:13" ht="13.8" thickBot="1">
       <c r="D21" s="83"/>
       <c r="E21" s="83"/>
       <c r="F21" s="83"/>
@@ -13584,7 +13454,7 @@
       <c r="J22" s="149"/>
       <c r="K22" s="150"/>
     </row>
-    <row r="23" spans="2:13" ht="13.5" thickBot="1">
+    <row r="23" spans="2:13" ht="13.8" thickBot="1">
       <c r="B23" s="151" t="s">
         <v>244</v>
       </c>
@@ -13599,10 +13469,10 @@
       <c r="B24" s="153" t="s">
         <v>245</v>
       </c>
-      <c r="C24" s="201" t="s">
+      <c r="C24" s="266" t="s">
         <v>248</v>
       </c>
-      <c r="D24" s="202"/>
+      <c r="D24" s="267"/>
       <c r="E24" s="163">
         <v>4.8499999999999996</v>
       </c>
@@ -13617,8 +13487,8 @@
       <c r="B25" s="153" t="s">
         <v>246</v>
       </c>
-      <c r="C25" s="203"/>
-      <c r="D25" s="204"/>
+      <c r="C25" s="268"/>
+      <c r="D25" s="269"/>
       <c r="E25" s="163">
         <v>6.11</v>
       </c>
@@ -13633,8 +13503,8 @@
       <c r="B26" s="151" t="s">
         <v>214</v>
       </c>
-      <c r="C26" s="203"/>
-      <c r="D26" s="204"/>
+      <c r="C26" s="268"/>
+      <c r="D26" s="269"/>
       <c r="E26" s="85"/>
       <c r="K26" s="152"/>
     </row>
@@ -13642,8 +13512,8 @@
       <c r="B27" s="153" t="s">
         <v>215</v>
       </c>
-      <c r="C27" s="203"/>
-      <c r="D27" s="204"/>
+      <c r="C27" s="268"/>
+      <c r="D27" s="269"/>
       <c r="E27" s="163">
         <v>82.02</v>
       </c>
@@ -13658,8 +13528,8 @@
       <c r="B28" s="153" t="s">
         <v>216</v>
       </c>
-      <c r="C28" s="203"/>
-      <c r="D28" s="204"/>
+      <c r="C28" s="268"/>
+      <c r="D28" s="269"/>
       <c r="E28" s="163">
         <v>11.45</v>
       </c>
@@ -13674,8 +13544,8 @@
       <c r="B29" s="153" t="s">
         <v>217</v>
       </c>
-      <c r="C29" s="203"/>
-      <c r="D29" s="204"/>
+      <c r="C29" s="268"/>
+      <c r="D29" s="269"/>
       <c r="E29" s="163">
         <v>8.18</v>
       </c>
@@ -13690,8 +13560,8 @@
       <c r="B30" s="153" t="s">
         <v>218</v>
       </c>
-      <c r="C30" s="203"/>
-      <c r="D30" s="204"/>
+      <c r="C30" s="268"/>
+      <c r="D30" s="269"/>
       <c r="E30" s="163">
         <v>5.1100000000000003</v>
       </c>
@@ -13706,17 +13576,17 @@
       <c r="B31" s="154" t="s">
         <v>219</v>
       </c>
-      <c r="C31" s="203"/>
-      <c r="D31" s="204"/>
+      <c r="C31" s="268"/>
+      <c r="D31" s="269"/>
       <c r="E31" s="85"/>
       <c r="K31" s="152"/>
     </row>
-    <row r="32" spans="2:13" ht="13.5" thickBot="1">
+    <row r="32" spans="2:13" ht="13.8" thickBot="1">
       <c r="B32" s="153" t="s">
         <v>220</v>
       </c>
-      <c r="C32" s="205"/>
-      <c r="D32" s="206"/>
+      <c r="C32" s="270"/>
+      <c r="D32" s="271"/>
       <c r="E32" s="163">
         <v>6.89</v>
       </c>
@@ -13818,7 +13688,7 @@
       <c r="J39" s="102"/>
       <c r="K39" s="158"/>
     </row>
-    <row r="40" spans="2:11" ht="13.5" thickBot="1">
+    <row r="40" spans="2:11" ht="13.8" thickBot="1">
       <c r="B40" s="155" t="s">
         <v>247</v>
       </c>
@@ -14379,13 +14249,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="80" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="80" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="80" customWidth="1"/>
-    <col min="4" max="14" width="16.140625" style="80" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="80"/>
+    <col min="1" max="1" width="5.5546875" style="80" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" style="80" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" style="80" customWidth="1"/>
+    <col min="4" max="14" width="16.109375" style="80" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="80"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14">
@@ -14522,7 +14392,7 @@
       <c r="M7"/>
       <c r="N7"/>
     </row>
-    <row r="8" spans="2:14" ht="13.5" thickBot="1">
+    <row r="8" spans="2:14" ht="13.8" thickBot="1">
       <c r="B8" s="105" t="s">
         <v>278</v>
       </c>
@@ -14670,12 +14540,12 @@
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="80" customWidth="1"/>
-    <col min="2" max="3" width="38.85546875" style="80" customWidth="1"/>
-    <col min="4" max="13" width="16.140625" style="80" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="80"/>
+    <col min="1" max="1" width="5.5546875" style="80" customWidth="1"/>
+    <col min="2" max="3" width="38.88671875" style="80" customWidth="1"/>
+    <col min="4" max="13" width="16.109375" style="80" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="80"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
@@ -14957,7 +14827,7 @@
         <v>17986.400000000001</v>
       </c>
     </row>
-    <row r="18" spans="3:16" ht="15">
+    <row r="18" spans="3:16" ht="14.4">
       <c r="F18" s="195">
         <f>F17-E17</f>
         <v>678</v>
@@ -14983,16 +14853,16 @@
         <v>479.30000000000291</v>
       </c>
     </row>
-    <row r="22" spans="3:16" ht="15">
+    <row r="22" spans="3:16" ht="14.4">
       <c r="M22" s="179"/>
     </row>
-    <row r="23" spans="3:16" ht="15">
+    <row r="23" spans="3:16" ht="14.4">
       <c r="M23" s="179"/>
     </row>
-    <row r="24" spans="3:16" ht="15.75" thickBot="1">
+    <row r="24" spans="3:16" ht="15" thickBot="1">
       <c r="M24" s="179"/>
     </row>
-    <row r="25" spans="3:16" ht="46.5">
+    <row r="25" spans="3:16" ht="31.2">
       <c r="C25" s="183" t="s">
         <v>296</v>
       </c>
@@ -15022,7 +14892,7 @@
       </c>
       <c r="M25" s="179"/>
     </row>
-    <row r="26" spans="3:16" ht="30.75">
+    <row r="26" spans="3:16" ht="31.2">
       <c r="C26" s="184" t="s">
         <v>297</v>
       </c>
@@ -15052,7 +14922,7 @@
       </c>
       <c r="P26" s="179"/>
     </row>
-    <row r="27" spans="3:16" ht="63" thickBot="1">
+    <row r="27" spans="3:16" ht="47.4" thickBot="1">
       <c r="C27" s="185" t="s">
         <v>298</v>
       </c>
@@ -15083,39 +14953,39 @@
       <c r="M27" s="179"/>
       <c r="P27" s="179"/>
     </row>
-    <row r="28" spans="3:16" ht="15">
+    <row r="28" spans="3:16" ht="14.4">
       <c r="M28" s="179"/>
       <c r="P28" s="179"/>
     </row>
-    <row r="29" spans="3:16" ht="15">
+    <row r="29" spans="3:16" ht="14.4">
       <c r="M29" s="179"/>
       <c r="P29" s="179"/>
     </row>
-    <row r="30" spans="3:16" ht="15">
+    <row r="30" spans="3:16" ht="14.4">
       <c r="M30" s="179"/>
     </row>
-    <row r="32" spans="3:16" ht="15">
+    <row r="32" spans="3:16" ht="14.4">
       <c r="M32" s="179"/>
     </row>
-    <row r="33" spans="13:13" ht="15">
+    <row r="33" spans="13:13" ht="14.4">
       <c r="M33" s="179"/>
     </row>
-    <row r="34" spans="13:13" ht="15">
+    <row r="34" spans="13:13" ht="14.4">
       <c r="M34" s="179"/>
     </row>
-    <row r="35" spans="13:13" ht="15">
+    <row r="35" spans="13:13" ht="14.4">
       <c r="M35" s="179"/>
     </row>
-    <row r="37" spans="13:13" ht="15">
+    <row r="37" spans="13:13" ht="14.4">
       <c r="M37" s="179"/>
     </row>
-    <row r="38" spans="13:13" ht="15">
+    <row r="38" spans="13:13" ht="14.4">
       <c r="M38" s="179"/>
     </row>
-    <row r="39" spans="13:13" ht="15">
+    <row r="39" spans="13:13" ht="14.4">
       <c r="M39" s="179"/>
     </row>
-    <row r="40" spans="13:13" ht="15">
+    <row r="40" spans="13:13" ht="14.4">
       <c r="M40" s="179"/>
     </row>
     <row r="49" spans="4:11">
@@ -15167,17 +15037,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A7D98A4600D5044F9F854C890D6CC50E" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8e60135c9ff18117bb10fbbf3d19053f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8acd6055-54fc-4ce7-b3df-0a09834a0329" xmlns:ns3="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2d29e1eae29b28bc967f17f2b3cf6e7c" ns2:_="" ns3:_="">
     <xsd:import namespace="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
@@ -15420,6 +15279,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -15430,6 +15300,25 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EC030B7-A569-4FA3-95B6-AB42D36D4A5C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA861A5-7E6A-41A7-8E0B-DCD15A12B5CB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -15446,10 +15335,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EC030B7-A569-4FA3-95B6-AB42D36D4A5C}"/>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
   <ds:schemaRefs>
